--- a/Fallout Shelter.xlsx
+++ b/Fallout Shelter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="293">
   <si>
     <t>Item</t>
   </si>
@@ -636,6 +636,42 @@
     <t>Baseball Uniform</t>
   </si>
   <si>
+    <t>Charon's Shotgun</t>
+  </si>
+  <si>
+    <t>T-51f Power Armor</t>
+  </si>
+  <si>
+    <t>Expert Jumpsuit</t>
+  </si>
+  <si>
+    <t>Fat Man</t>
+  </si>
+  <si>
+    <t>Lead Belcher</t>
+  </si>
+  <si>
+    <t>Plasma Thrower</t>
+  </si>
+  <si>
+    <t>Targeting Institute Rifle</t>
+  </si>
+  <si>
+    <t>Enhanced Gauss Rifle</t>
+  </si>
+  <si>
+    <t>Bayoneted Pipe Rifle</t>
+  </si>
+  <si>
+    <t>Heavy Combat Armor</t>
+  </si>
+  <si>
+    <t>Lucky Formal Wear</t>
+  </si>
+  <si>
+    <t>Excited Institute Rifle</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
@@ -673,9 +709,6 @@
   </si>
   <si>
     <t>1 Stimpak</t>
-  </si>
-  <si>
-    <t>Expert Jumpsuit</t>
   </si>
   <si>
     <t>500 Caps</t>
@@ -738,9 +771,6 @@
     <t>Amy Berry</t>
   </si>
   <si>
-    <t>Charon's Shotgun</t>
-  </si>
-  <si>
     <t>Tri-Fold Flag</t>
   </si>
   <si>
@@ -757,9 +787,6 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>Heavy Combat Armor</t>
   </si>
   <si>
     <t>Cattle Dog</t>
@@ -784,9 +811,6 @@
   </si>
   <si>
     <t>Country Girl</t>
-  </si>
-  <si>
-    <t>T-51f Power Armor</t>
   </si>
   <si>
     <t>Bespoke Attire</t>
@@ -826,6 +850,48 @@
   </si>
   <si>
     <t>Victoria Day</t>
+  </si>
+  <si>
+    <t>5 Nuka-Cola Quantum</t>
+  </si>
+  <si>
+    <t>Victoria Mills</t>
+  </si>
+  <si>
+    <t>Bowling Shirt</t>
+  </si>
+  <si>
+    <t>Kathleen Drake</t>
+  </si>
+  <si>
+    <t>10mm Pistol</t>
+  </si>
+  <si>
+    <t>Joan Young</t>
+  </si>
+  <si>
+    <t>Formal Wear</t>
+  </si>
+  <si>
+    <t>Charles Day</t>
+  </si>
+  <si>
+    <t>Kenneth Thompson</t>
+  </si>
+  <si>
+    <t>Country Girl (outfit)</t>
+  </si>
+  <si>
+    <t>T-45d Power Armor</t>
+  </si>
+  <si>
+    <t>Daniel Adams</t>
+  </si>
+  <si>
+    <t>Stimpak</t>
+  </si>
+  <si>
+    <t>Lori Payne</t>
   </si>
 </sst>
 </file>
@@ -1118,11 +1184,11 @@
         <v>1.0</v>
       </c>
       <c r="D3" s="6">
-        <f t="shared" ref="D3:D728" si="1">(IF(B3="Common", 10, IF(B3="Rare", 100, IF(B3="Legendary", 500))) * C3)</f>
+        <f t="shared" ref="D3:D950" si="1">(IF(B3="Common", 10, IF(B3="Rare", 100, IF(B3="Legendary", 500))) * C3)</f>
         <v>100</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:E728" si="2">(2*(SUM(F3:L3)) + (50*SUM(M3:S3)) + (200*SUM(T3:Z3)))</f>
+        <f t="shared" ref="E3:E950" si="2">(2*(SUM(F3:L3)) + (50*SUM(M3:S3)) + (200*SUM(T3:Z3)))</f>
         <v>160</v>
       </c>
       <c r="F3" s="6"/>
@@ -35936,16 +36002,22 @@
       <c r="AD709" s="6"/>
     </row>
     <row r="710">
-      <c r="A710" s="8"/>
-      <c r="B710" s="8"/>
-      <c r="C710" s="8"/>
+      <c r="A710" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B710" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C710" s="7">
+        <v>1.0</v>
+      </c>
       <c r="D710" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E710" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="F710" s="8"/>
       <c r="G710" s="8"/>
@@ -35960,12 +36032,16 @@
       <c r="P710" s="8"/>
       <c r="Q710" s="8"/>
       <c r="R710" s="8"/>
-      <c r="S710" s="8"/>
+      <c r="S710" s="7">
+        <v>3.0</v>
+      </c>
       <c r="T710" s="8"/>
       <c r="U710" s="8"/>
       <c r="V710" s="8"/>
       <c r="W710" s="8"/>
-      <c r="X710" s="8"/>
+      <c r="X710" s="7">
+        <v>1.0</v>
+      </c>
       <c r="Y710" s="8"/>
       <c r="Z710" s="8"/>
       <c r="AA710" s="8"/>
@@ -35974,16 +36050,22 @@
       <c r="AD710" s="8"/>
     </row>
     <row r="711">
-      <c r="A711" s="6"/>
-      <c r="B711" s="6"/>
-      <c r="C711" s="6"/>
+      <c r="A711" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B711" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C711" s="5">
+        <v>1.0</v>
+      </c>
       <c r="D711" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E711" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="F711" s="6"/>
       <c r="G711" s="6"/>
@@ -35997,11 +36079,17 @@
       <c r="O711" s="6"/>
       <c r="P711" s="6"/>
       <c r="Q711" s="6"/>
-      <c r="R711" s="6"/>
+      <c r="R711" s="5">
+        <v>3.0</v>
+      </c>
       <c r="S711" s="6"/>
-      <c r="T711" s="6"/>
+      <c r="T711" s="5">
+        <v>1.0</v>
+      </c>
       <c r="U711" s="6"/>
-      <c r="V711" s="6"/>
+      <c r="V711" s="5">
+        <v>3.0</v>
+      </c>
       <c r="W711" s="6"/>
       <c r="X711" s="6"/>
       <c r="Y711" s="6"/>
@@ -36012,16 +36100,22 @@
       <c r="AD711" s="6"/>
     </row>
     <row r="712">
-      <c r="A712" s="8"/>
-      <c r="B712" s="8"/>
-      <c r="C712" s="8"/>
+      <c r="A712" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B712" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C712" s="7">
+        <v>1.0</v>
+      </c>
       <c r="D712" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E712" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F712" s="8"/>
       <c r="G712" s="8"/>
@@ -36030,7 +36124,9 @@
       <c r="J712" s="8"/>
       <c r="K712" s="8"/>
       <c r="L712" s="8"/>
-      <c r="M712" s="8"/>
+      <c r="M712" s="7">
+        <v>4.0</v>
+      </c>
       <c r="N712" s="8"/>
       <c r="O712" s="8"/>
       <c r="P712" s="8"/>
@@ -36042,24 +36138,34 @@
       <c r="V712" s="8"/>
       <c r="W712" s="8"/>
       <c r="X712" s="8"/>
-      <c r="Y712" s="8"/>
-      <c r="Z712" s="8"/>
+      <c r="Y712" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="Z712" s="7">
+        <v>1.0</v>
+      </c>
       <c r="AA712" s="8"/>
       <c r="AB712" s="8"/>
       <c r="AC712" s="8"/>
       <c r="AD712" s="8"/>
     </row>
     <row r="713">
-      <c r="A713" s="6"/>
-      <c r="B713" s="6"/>
-      <c r="C713" s="6"/>
+      <c r="A713" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B713" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C713" s="5">
+        <v>1.0</v>
+      </c>
       <c r="D713" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E713" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="F713" s="6"/>
       <c r="G713" s="6"/>
@@ -36072,7 +36178,9 @@
       <c r="N713" s="6"/>
       <c r="O713" s="6"/>
       <c r="P713" s="6"/>
-      <c r="Q713" s="6"/>
+      <c r="Q713" s="5">
+        <v>3.0</v>
+      </c>
       <c r="R713" s="6"/>
       <c r="S713" s="6"/>
       <c r="T713" s="6"/>
@@ -36081,23 +36189,31 @@
       <c r="W713" s="6"/>
       <c r="X713" s="6"/>
       <c r="Y713" s="6"/>
-      <c r="Z713" s="6"/>
+      <c r="Z713" s="5">
+        <v>5.0</v>
+      </c>
       <c r="AA713" s="6"/>
       <c r="AB713" s="6"/>
       <c r="AC713" s="6"/>
       <c r="AD713" s="6"/>
     </row>
     <row r="714">
-      <c r="A714" s="8"/>
-      <c r="B714" s="8"/>
-      <c r="C714" s="8"/>
+      <c r="A714" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B714" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C714" s="7">
+        <v>1.0</v>
+      </c>
       <c r="D714" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E714" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="F714" s="8"/>
       <c r="G714" s="8"/>
@@ -36112,12 +36228,18 @@
       <c r="P714" s="8"/>
       <c r="Q714" s="8"/>
       <c r="R714" s="8"/>
-      <c r="S714" s="8"/>
+      <c r="S714" s="7">
+        <v>3.0</v>
+      </c>
       <c r="T714" s="8"/>
-      <c r="U714" s="8"/>
+      <c r="U714" s="7">
+        <v>1.0</v>
+      </c>
       <c r="V714" s="8"/>
       <c r="W714" s="8"/>
-      <c r="X714" s="8"/>
+      <c r="X714" s="7">
+        <v>1.0</v>
+      </c>
       <c r="Y714" s="8"/>
       <c r="Z714" s="8"/>
       <c r="AA714" s="8"/>
@@ -36126,16 +36248,22 @@
       <c r="AD714" s="8"/>
     </row>
     <row r="715">
-      <c r="A715" s="6"/>
-      <c r="B715" s="6"/>
-      <c r="C715" s="6"/>
+      <c r="A715" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B715" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C715" s="5">
+        <v>1.0</v>
+      </c>
       <c r="D715" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E715" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="F715" s="6"/>
       <c r="G715" s="6"/>
@@ -36150,12 +36278,18 @@
       <c r="P715" s="6"/>
       <c r="Q715" s="6"/>
       <c r="R715" s="6"/>
-      <c r="S715" s="6"/>
+      <c r="S715" s="5">
+        <v>3.0</v>
+      </c>
       <c r="T715" s="6"/>
       <c r="U715" s="6"/>
       <c r="V715" s="6"/>
-      <c r="W715" s="6"/>
-      <c r="X715" s="6"/>
+      <c r="W715" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="X715" s="5">
+        <v>2.0</v>
+      </c>
       <c r="Y715" s="6"/>
       <c r="Z715" s="6"/>
       <c r="AA715" s="6"/>
@@ -36164,16 +36298,22 @@
       <c r="AD715" s="6"/>
     </row>
     <row r="716">
-      <c r="A716" s="8"/>
-      <c r="B716" s="8"/>
-      <c r="C716" s="8"/>
+      <c r="A716" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B716" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C716" s="7">
+        <v>2.0</v>
+      </c>
       <c r="D716" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E716" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="F716" s="8"/>
       <c r="G716" s="8"/>
@@ -36188,12 +36328,18 @@
       <c r="P716" s="8"/>
       <c r="Q716" s="8"/>
       <c r="R716" s="8"/>
-      <c r="S716" s="8"/>
+      <c r="S716" s="7">
+        <v>7.0</v>
+      </c>
       <c r="T716" s="8"/>
       <c r="U716" s="8"/>
       <c r="V716" s="8"/>
-      <c r="W716" s="8"/>
-      <c r="X716" s="8"/>
+      <c r="W716" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="X716" s="7">
+        <v>1.0</v>
+      </c>
       <c r="Y716" s="8"/>
       <c r="Z716" s="8"/>
       <c r="AA716" s="8"/>
@@ -36202,16 +36348,22 @@
       <c r="AD716" s="8"/>
     </row>
     <row r="717">
-      <c r="A717" s="6"/>
-      <c r="B717" s="6"/>
-      <c r="C717" s="6"/>
+      <c r="A717" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B717" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C717" s="5">
+        <v>1.0</v>
+      </c>
       <c r="D717" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E717" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="F717" s="6"/>
       <c r="G717" s="6"/>
@@ -36222,13 +36374,19 @@
       <c r="L717" s="6"/>
       <c r="M717" s="6"/>
       <c r="N717" s="6"/>
-      <c r="O717" s="6"/>
+      <c r="O717" s="5">
+        <v>3.0</v>
+      </c>
       <c r="P717" s="6"/>
       <c r="Q717" s="6"/>
       <c r="R717" s="6"/>
       <c r="S717" s="6"/>
-      <c r="T717" s="6"/>
-      <c r="U717" s="6"/>
+      <c r="T717" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="U717" s="5">
+        <v>1.0</v>
+      </c>
       <c r="V717" s="6"/>
       <c r="W717" s="6"/>
       <c r="X717" s="6"/>
@@ -36240,16 +36398,22 @@
       <c r="AD717" s="6"/>
     </row>
     <row r="718">
-      <c r="A718" s="8"/>
-      <c r="B718" s="8"/>
-      <c r="C718" s="8"/>
+      <c r="A718" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B718" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C718" s="7">
+        <v>1.0</v>
+      </c>
       <c r="D718" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E718" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="F718" s="8"/>
       <c r="G718" s="8"/>
@@ -36261,14 +36425,20 @@
       <c r="M718" s="8"/>
       <c r="N718" s="8"/>
       <c r="O718" s="8"/>
-      <c r="P718" s="8"/>
+      <c r="P718" s="7">
+        <v>2.0</v>
+      </c>
       <c r="Q718" s="8"/>
       <c r="R718" s="8"/>
       <c r="S718" s="8"/>
-      <c r="T718" s="8"/>
+      <c r="T718" s="7">
+        <v>2.0</v>
+      </c>
       <c r="U718" s="8"/>
       <c r="V718" s="8"/>
-      <c r="W718" s="8"/>
+      <c r="W718" s="7">
+        <v>3.0</v>
+      </c>
       <c r="X718" s="8"/>
       <c r="Y718" s="8"/>
       <c r="Z718" s="8"/>
@@ -36278,16 +36448,22 @@
       <c r="AD718" s="8"/>
     </row>
     <row r="719">
-      <c r="A719" s="6"/>
-      <c r="B719" s="6"/>
-      <c r="C719" s="6"/>
+      <c r="A719" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B719" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C719" s="5">
+        <v>1.0</v>
+      </c>
       <c r="D719" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E719" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="F719" s="6"/>
       <c r="G719" s="6"/>
@@ -36297,9 +36473,13 @@
       <c r="K719" s="6"/>
       <c r="L719" s="6"/>
       <c r="M719" s="6"/>
-      <c r="N719" s="6"/>
+      <c r="N719" s="5">
+        <v>2.0</v>
+      </c>
       <c r="O719" s="6"/>
-      <c r="P719" s="6"/>
+      <c r="P719" s="5">
+        <v>3.0</v>
+      </c>
       <c r="Q719" s="6"/>
       <c r="R719" s="6"/>
       <c r="S719" s="6"/>
@@ -36307,7 +36487,9 @@
       <c r="U719" s="6"/>
       <c r="V719" s="6"/>
       <c r="W719" s="6"/>
-      <c r="X719" s="6"/>
+      <c r="X719" s="5">
+        <v>2.0</v>
+      </c>
       <c r="Y719" s="6"/>
       <c r="Z719" s="6"/>
       <c r="AA719" s="6"/>
@@ -36316,16 +36498,22 @@
       <c r="AD719" s="6"/>
     </row>
     <row r="720">
-      <c r="A720" s="8"/>
-      <c r="B720" s="8"/>
-      <c r="C720" s="8"/>
+      <c r="A720" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B720" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C720" s="7">
+        <v>1.0</v>
+      </c>
       <c r="D720" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E720" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="F720" s="8"/>
       <c r="G720" s="8"/>
@@ -36335,15 +36523,21 @@
       <c r="K720" s="8"/>
       <c r="L720" s="8"/>
       <c r="M720" s="8"/>
-      <c r="N720" s="8"/>
+      <c r="N720" s="7">
+        <v>3.0</v>
+      </c>
       <c r="O720" s="8"/>
       <c r="P720" s="8"/>
       <c r="Q720" s="8"/>
       <c r="R720" s="8"/>
       <c r="S720" s="8"/>
       <c r="T720" s="8"/>
-      <c r="U720" s="8"/>
-      <c r="V720" s="8"/>
+      <c r="U720" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="V720" s="7">
+        <v>2.0</v>
+      </c>
       <c r="W720" s="8"/>
       <c r="X720" s="8"/>
       <c r="Y720" s="8"/>
@@ -36354,16 +36548,22 @@
       <c r="AD720" s="8"/>
     </row>
     <row r="721">
-      <c r="A721" s="6"/>
-      <c r="B721" s="6"/>
-      <c r="C721" s="6"/>
+      <c r="A721" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B721" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C721" s="5">
+        <v>1.0</v>
+      </c>
       <c r="D721" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E721" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="F721" s="6"/>
       <c r="G721" s="6"/>
@@ -36375,11 +36575,17 @@
       <c r="M721" s="6"/>
       <c r="N721" s="6"/>
       <c r="O721" s="6"/>
-      <c r="P721" s="6"/>
+      <c r="P721" s="5">
+        <v>2.0</v>
+      </c>
       <c r="Q721" s="6"/>
       <c r="R721" s="6"/>
-      <c r="S721" s="6"/>
-      <c r="T721" s="6"/>
+      <c r="S721" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="T721" s="5">
+        <v>2.0</v>
+      </c>
       <c r="U721" s="6"/>
       <c r="V721" s="6"/>
       <c r="W721" s="6"/>
@@ -36392,30 +36598,42 @@
       <c r="AD721" s="6"/>
     </row>
     <row r="722">
-      <c r="A722" s="8"/>
-      <c r="B722" s="8"/>
-      <c r="C722" s="8"/>
+      <c r="A722" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B722" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C722" s="7">
+        <v>1.0</v>
+      </c>
       <c r="D722" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E722" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="F722" s="8"/>
       <c r="G722" s="8"/>
       <c r="H722" s="8"/>
       <c r="I722" s="8"/>
       <c r="J722" s="8"/>
-      <c r="K722" s="8"/>
+      <c r="K722" s="7">
+        <v>2.0</v>
+      </c>
       <c r="L722" s="8"/>
       <c r="M722" s="8"/>
       <c r="N722" s="8"/>
-      <c r="O722" s="8"/>
+      <c r="O722" s="7">
+        <v>3.0</v>
+      </c>
       <c r="P722" s="8"/>
       <c r="Q722" s="8"/>
-      <c r="R722" s="8"/>
+      <c r="R722" s="7">
+        <v>1.0</v>
+      </c>
       <c r="S722" s="8"/>
       <c r="T722" s="8"/>
       <c r="U722" s="8"/>
@@ -36430,31 +36648,43 @@
       <c r="AD722" s="8"/>
     </row>
     <row r="723">
-      <c r="A723" s="6"/>
-      <c r="B723" s="6"/>
-      <c r="C723" s="6"/>
+      <c r="A723" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B723" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C723" s="5">
+        <v>1.0</v>
+      </c>
       <c r="D723" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E723" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="F723" s="6"/>
       <c r="G723" s="6"/>
-      <c r="H723" s="6"/>
+      <c r="H723" s="5">
+        <v>4.0</v>
+      </c>
       <c r="I723" s="6"/>
       <c r="J723" s="6"/>
       <c r="K723" s="6"/>
       <c r="L723" s="6"/>
       <c r="M723" s="6"/>
       <c r="N723" s="6"/>
-      <c r="O723" s="6"/>
+      <c r="O723" s="5">
+        <v>2.0</v>
+      </c>
       <c r="P723" s="6"/>
       <c r="Q723" s="6"/>
       <c r="R723" s="6"/>
-      <c r="S723" s="6"/>
+      <c r="S723" s="5">
+        <v>3.0</v>
+      </c>
       <c r="T723" s="6"/>
       <c r="U723" s="6"/>
       <c r="V723" s="6"/>
@@ -36468,31 +36698,43 @@
       <c r="AD723" s="6"/>
     </row>
     <row r="724">
-      <c r="A724" s="8"/>
-      <c r="B724" s="8"/>
-      <c r="C724" s="8"/>
+      <c r="A724" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B724" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C724" s="7">
+        <v>1.0</v>
+      </c>
       <c r="D724" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E724" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="F724" s="8"/>
       <c r="G724" s="8"/>
       <c r="H724" s="8"/>
       <c r="I724" s="8"/>
-      <c r="J724" s="8"/>
+      <c r="J724" s="7">
+        <v>3.0</v>
+      </c>
       <c r="K724" s="8"/>
       <c r="L724" s="8"/>
       <c r="M724" s="8"/>
-      <c r="N724" s="8"/>
+      <c r="N724" s="7">
+        <v>2.0</v>
+      </c>
       <c r="O724" s="8"/>
       <c r="P724" s="8"/>
       <c r="Q724" s="8"/>
       <c r="R724" s="8"/>
-      <c r="S724" s="8"/>
+      <c r="S724" s="7">
+        <v>1.0</v>
+      </c>
       <c r="T724" s="8"/>
       <c r="U724" s="8"/>
       <c r="V724" s="8"/>
@@ -36506,27 +36748,37 @@
       <c r="AD724" s="8"/>
     </row>
     <row r="725">
-      <c r="A725" s="6"/>
-      <c r="B725" s="6"/>
-      <c r="C725" s="6"/>
+      <c r="A725" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B725" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C725" s="5">
+        <v>1.0</v>
+      </c>
       <c r="D725" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E725" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="F725" s="6"/>
       <c r="G725" s="6"/>
-      <c r="H725" s="6"/>
+      <c r="H725" s="5">
+        <v>3.0</v>
+      </c>
       <c r="I725" s="6"/>
       <c r="J725" s="6"/>
       <c r="K725" s="6"/>
       <c r="L725" s="6"/>
       <c r="M725" s="6"/>
       <c r="N725" s="6"/>
-      <c r="O725" s="6"/>
+      <c r="O725" s="5">
+        <v>2.0</v>
+      </c>
       <c r="P725" s="6"/>
       <c r="Q725" s="6"/>
       <c r="R725" s="6"/>
@@ -36544,26 +36796,38 @@
       <c r="AD725" s="6"/>
     </row>
     <row r="726">
-      <c r="A726" s="8"/>
-      <c r="B726" s="8"/>
-      <c r="C726" s="8"/>
+      <c r="A726" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B726" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C726" s="7">
+        <v>1.0</v>
+      </c>
       <c r="D726" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E726" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="F726" s="8"/>
       <c r="G726" s="8"/>
       <c r="H726" s="8"/>
       <c r="I726" s="8"/>
-      <c r="J726" s="8"/>
-      <c r="K726" s="8"/>
+      <c r="J726" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K726" s="7">
+        <v>3.0</v>
+      </c>
       <c r="L726" s="8"/>
       <c r="M726" s="8"/>
-      <c r="N726" s="8"/>
+      <c r="N726" s="7">
+        <v>3.0</v>
+      </c>
       <c r="O726" s="8"/>
       <c r="P726" s="8"/>
       <c r="Q726" s="8"/>
@@ -36582,31 +36846,43 @@
       <c r="AD726" s="8"/>
     </row>
     <row r="727">
-      <c r="A727" s="6"/>
-      <c r="B727" s="6"/>
-      <c r="C727" s="6"/>
+      <c r="A727" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B727" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C727" s="5">
+        <v>1.0</v>
+      </c>
       <c r="D727" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E727" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="F727" s="6"/>
       <c r="G727" s="6"/>
       <c r="H727" s="6"/>
       <c r="I727" s="6"/>
-      <c r="J727" s="6"/>
+      <c r="J727" s="5">
+        <v>2.0</v>
+      </c>
       <c r="K727" s="6"/>
       <c r="L727" s="6"/>
       <c r="M727" s="6"/>
-      <c r="N727" s="6"/>
+      <c r="N727" s="5">
+        <v>1.0</v>
+      </c>
       <c r="O727" s="6"/>
       <c r="P727" s="6"/>
       <c r="Q727" s="6"/>
       <c r="R727" s="6"/>
-      <c r="S727" s="6"/>
+      <c r="S727" s="5">
+        <v>1.0</v>
+      </c>
       <c r="T727" s="6"/>
       <c r="U727" s="6"/>
       <c r="V727" s="6"/>
@@ -36620,20 +36896,31 @@
       <c r="AD727" s="6"/>
     </row>
     <row r="728">
-      <c r="A728" s="8"/>
-      <c r="B728" s="8"/>
-      <c r="C728" s="8"/>
+      <c r="A728" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B728" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C728" s="7">
+        <v>1.0</v>
+      </c>
       <c r="D728" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E728" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="H728" s="7">
+        <v>3.0</v>
       </c>
       <c r="I728" s="8"/>
       <c r="J728" s="8"/>
-      <c r="K728" s="8"/>
+      <c r="K728" s="7">
+        <v>1.0</v>
+      </c>
       <c r="L728" s="8"/>
       <c r="M728" s="8"/>
       <c r="N728" s="8"/>
@@ -36641,7 +36928,9 @@
       <c r="P728" s="8"/>
       <c r="Q728" s="8"/>
       <c r="R728" s="8"/>
-      <c r="S728" s="8"/>
+      <c r="S728" s="7">
+        <v>1.0</v>
+      </c>
       <c r="T728" s="8"/>
       <c r="U728" s="8"/>
       <c r="V728" s="8"/>
@@ -36655,16 +36944,35 @@
       <c r="AD728" s="8"/>
     </row>
     <row r="729">
-      <c r="A729" s="6"/>
-      <c r="B729" s="6"/>
-      <c r="C729" s="6"/>
-      <c r="D729" s="6"/>
-      <c r="E729" s="6"/>
-      <c r="F729" s="5"/>
+      <c r="A729" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B729" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C729" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D729" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E729" s="6">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="F729" s="5">
+        <v>2.0</v>
+      </c>
       <c r="G729" s="9"/>
       <c r="H729" s="9"/>
       <c r="I729" s="6"/>
-      <c r="P729" s="6"/>
+      <c r="L729" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="P729" s="5">
+        <v>3.0</v>
+      </c>
       <c r="Q729" s="6"/>
       <c r="R729" s="6"/>
       <c r="S729" s="6"/>
@@ -36681,18 +36989,38 @@
       <c r="AD729" s="6"/>
     </row>
     <row r="730">
-      <c r="A730" s="8"/>
-      <c r="B730" s="8"/>
-      <c r="C730" s="8"/>
-      <c r="D730" s="8"/>
-      <c r="E730" s="8"/>
+      <c r="A730" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B730" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C730" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D730" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E730" s="8">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
       <c r="F730" s="8"/>
       <c r="G730" s="10"/>
       <c r="H730" s="10"/>
       <c r="I730" s="8"/>
+      <c r="J730" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="N730" s="7">
+        <v>2.0</v>
+      </c>
       <c r="Q730" s="8"/>
       <c r="R730" s="8"/>
-      <c r="S730" s="8"/>
+      <c r="S730" s="7">
+        <v>1.0</v>
+      </c>
       <c r="T730" s="8"/>
       <c r="U730" s="8"/>
       <c r="V730" s="8"/>
@@ -36706,15 +37034,36 @@
       <c r="AD730" s="8"/>
     </row>
     <row r="731">
-      <c r="A731" s="6"/>
-      <c r="B731" s="6"/>
-      <c r="C731" s="6"/>
-      <c r="D731" s="6"/>
-      <c r="E731" s="6"/>
+      <c r="A731" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B731" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C731" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D731" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E731" s="6">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
       <c r="F731" s="6"/>
       <c r="G731" s="6"/>
       <c r="H731" s="6"/>
       <c r="I731" s="6"/>
+      <c r="J731" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="K731" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="N731" s="5">
+        <v>1.0</v>
+      </c>
       <c r="P731" s="6"/>
       <c r="Q731" s="6"/>
       <c r="R731" s="6"/>
@@ -36732,16 +37081,35 @@
       <c r="AD731" s="6"/>
     </row>
     <row r="732">
-      <c r="A732" s="8"/>
-      <c r="B732" s="8"/>
-      <c r="C732" s="8"/>
-      <c r="D732" s="8"/>
-      <c r="E732" s="8"/>
-      <c r="F732" s="8"/>
+      <c r="A732" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B732" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C732" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D732" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E732" s="8">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="F732" s="7">
+        <v>2.0</v>
+      </c>
       <c r="G732" s="8"/>
       <c r="H732" s="8"/>
       <c r="I732" s="8"/>
-      <c r="P732" s="8"/>
+      <c r="K732" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="P732" s="7">
+        <v>1.0</v>
+      </c>
       <c r="Q732" s="8"/>
       <c r="R732" s="8"/>
       <c r="S732" s="8"/>
@@ -36758,16 +37126,35 @@
       <c r="AD732" s="8"/>
     </row>
     <row r="733">
-      <c r="A733" s="6"/>
-      <c r="B733" s="6"/>
-      <c r="C733" s="6"/>
-      <c r="D733" s="6"/>
-      <c r="E733" s="6"/>
+      <c r="A733" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B733" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C733" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D733" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E733" s="6">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
       <c r="F733" s="6"/>
       <c r="G733" s="6"/>
-      <c r="H733" s="6"/>
+      <c r="H733" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I733" s="6"/>
-      <c r="O733" s="6"/>
+      <c r="K733" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="O733" s="5">
+        <v>1.0</v>
+      </c>
       <c r="P733" s="6"/>
       <c r="Q733" s="6"/>
       <c r="R733" s="6"/>
@@ -36785,19 +37172,38 @@
       <c r="AD733" s="6"/>
     </row>
     <row r="734">
-      <c r="A734" s="8"/>
-      <c r="B734" s="8"/>
-      <c r="C734" s="8"/>
-      <c r="D734" s="8"/>
-      <c r="E734" s="8"/>
+      <c r="A734" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B734" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C734" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D734" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E734" s="8">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
       <c r="F734" s="8"/>
       <c r="G734" s="8"/>
       <c r="H734" s="8"/>
       <c r="I734" s="8"/>
-      <c r="O734" s="8"/>
+      <c r="K734" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="O734" s="7">
+        <v>1.0</v>
+      </c>
       <c r="P734" s="8"/>
       <c r="Q734" s="8"/>
-      <c r="R734" s="8"/>
+      <c r="R734" s="7">
+        <v>2.0</v>
+      </c>
       <c r="S734" s="8"/>
       <c r="T734" s="8"/>
       <c r="U734" s="8"/>
@@ -36812,25 +37218,43 @@
       <c r="AD734" s="8"/>
     </row>
     <row r="735">
-      <c r="A735" s="6"/>
-      <c r="B735" s="6"/>
-      <c r="C735" s="6"/>
-      <c r="D735" s="6"/>
-      <c r="E735" s="6"/>
+      <c r="A735" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B735" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C735" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D735" s="6">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E735" s="6">
+        <f t="shared" si="2"/>
+        <v>208</v>
+      </c>
       <c r="F735" s="6"/>
       <c r="G735" s="6"/>
       <c r="H735" s="6"/>
       <c r="I735" s="6"/>
-      <c r="J735" s="6"/>
+      <c r="J735" s="5">
+        <v>4.0</v>
+      </c>
       <c r="K735" s="6"/>
       <c r="L735" s="6"/>
       <c r="M735" s="6"/>
-      <c r="N735" s="6"/>
+      <c r="N735" s="5">
+        <v>2.0</v>
+      </c>
       <c r="O735" s="6"/>
       <c r="P735" s="6"/>
       <c r="Q735" s="6"/>
       <c r="R735" s="6"/>
-      <c r="S735" s="6"/>
+      <c r="S735" s="5">
+        <v>2.0</v>
+      </c>
       <c r="T735" s="6"/>
       <c r="U735" s="6"/>
       <c r="V735" s="6"/>
@@ -36844,12 +37268,26 @@
       <c r="AD735" s="6"/>
     </row>
     <row r="736">
-      <c r="A736" s="8"/>
-      <c r="B736" s="8"/>
-      <c r="C736" s="8"/>
-      <c r="D736" s="8"/>
-      <c r="E736" s="8"/>
-      <c r="F736" s="8"/>
+      <c r="A736" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B736" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C736" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D736" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E736" s="8">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="F736" s="7">
+        <v>3.0</v>
+      </c>
       <c r="G736" s="8"/>
       <c r="H736" s="8"/>
       <c r="I736" s="8"/>
@@ -36858,7 +37296,9 @@
       <c r="L736" s="8"/>
       <c r="M736" s="8"/>
       <c r="N736" s="8"/>
-      <c r="O736" s="8"/>
+      <c r="O736" s="7">
+        <v>1.0</v>
+      </c>
       <c r="P736" s="8"/>
       <c r="Q736" s="8"/>
       <c r="R736" s="8"/>
@@ -36876,24 +37316,42 @@
       <c r="AD736" s="8"/>
     </row>
     <row r="737">
-      <c r="A737" s="6"/>
-      <c r="B737" s="6"/>
-      <c r="C737" s="6"/>
-      <c r="D737" s="6"/>
-      <c r="E737" s="6"/>
-      <c r="F737" s="6"/>
+      <c r="A737" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B737" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C737" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D737" s="6">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E737" s="6">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="F737" s="5">
+        <v>4.0</v>
+      </c>
       <c r="G737" s="6"/>
       <c r="H737" s="6"/>
       <c r="I737" s="6"/>
       <c r="J737" s="5"/>
       <c r="K737" s="6"/>
-      <c r="L737" s="6"/>
+      <c r="L737" s="5">
+        <v>6.0</v>
+      </c>
       <c r="M737" s="6"/>
       <c r="N737" s="6"/>
       <c r="O737" s="6"/>
       <c r="P737" s="6"/>
       <c r="Q737" s="6"/>
-      <c r="R737" s="6"/>
+      <c r="R737" s="5">
+        <v>3.0</v>
+      </c>
       <c r="S737" s="6"/>
       <c r="T737" s="6"/>
       <c r="U737" s="6"/>
@@ -36908,24 +37366,42 @@
       <c r="AD737" s="6"/>
     </row>
     <row r="738">
-      <c r="A738" s="8"/>
-      <c r="B738" s="8"/>
-      <c r="C738" s="8"/>
-      <c r="D738" s="8"/>
-      <c r="E738" s="8"/>
+      <c r="A738" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B738" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C738" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="D738" s="8">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E738" s="8">
+        <f t="shared" si="2"/>
+        <v>208</v>
+      </c>
       <c r="F738" s="8"/>
       <c r="G738" s="8"/>
       <c r="H738" s="8"/>
       <c r="I738" s="8"/>
       <c r="J738" s="8"/>
-      <c r="K738" s="8"/>
+      <c r="K738" s="7">
+        <v>4.0</v>
+      </c>
       <c r="L738" s="8"/>
       <c r="M738" s="8"/>
       <c r="N738" s="8"/>
-      <c r="O738" s="8"/>
+      <c r="O738" s="7">
+        <v>2.0</v>
+      </c>
       <c r="P738" s="8"/>
       <c r="Q738" s="8"/>
-      <c r="R738" s="8"/>
+      <c r="R738" s="7">
+        <v>2.0</v>
+      </c>
       <c r="S738" s="8"/>
       <c r="T738" s="8"/>
       <c r="U738" s="8"/>
@@ -36940,17 +37416,31 @@
       <c r="AD738" s="8"/>
     </row>
     <row r="739">
-      <c r="A739" s="6"/>
-      <c r="B739" s="6"/>
-      <c r="C739" s="6"/>
-      <c r="D739" s="6"/>
-      <c r="E739" s="6"/>
+      <c r="A739" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B739" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C739" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D739" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E739" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="F739" s="6"/>
       <c r="G739" s="6"/>
       <c r="H739" s="6"/>
       <c r="I739" s="6"/>
       <c r="J739" s="6"/>
-      <c r="K739" s="6"/>
+      <c r="K739" s="5">
+        <v>2.0</v>
+      </c>
       <c r="L739" s="6"/>
       <c r="M739" s="6"/>
       <c r="N739" s="6"/>
@@ -36972,12 +37462,26 @@
       <c r="AD739" s="6"/>
     </row>
     <row r="740">
-      <c r="A740" s="8"/>
-      <c r="B740" s="8"/>
-      <c r="C740" s="8"/>
-      <c r="D740" s="8"/>
-      <c r="E740" s="8"/>
-      <c r="F740" s="8"/>
+      <c r="A740" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B740" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C740" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="D740" s="8">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E740" s="8">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="F740" s="7">
+        <v>5.0</v>
+      </c>
       <c r="G740" s="8"/>
       <c r="H740" s="8"/>
       <c r="I740" s="8"/>
@@ -36986,10 +37490,14 @@
       <c r="L740" s="8"/>
       <c r="M740" s="8"/>
       <c r="N740" s="8"/>
-      <c r="O740" s="8"/>
+      <c r="O740" s="7">
+        <v>2.0</v>
+      </c>
       <c r="P740" s="8"/>
       <c r="Q740" s="8"/>
-      <c r="R740" s="8"/>
+      <c r="R740" s="7">
+        <v>1.0</v>
+      </c>
       <c r="S740" s="8"/>
       <c r="T740" s="8"/>
       <c r="U740" s="8"/>
@@ -37004,25 +37512,43 @@
       <c r="AD740" s="8"/>
     </row>
     <row r="741">
-      <c r="A741" s="6"/>
-      <c r="B741" s="6"/>
-      <c r="C741" s="6"/>
-      <c r="D741" s="6"/>
-      <c r="E741" s="6"/>
+      <c r="A741" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B741" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C741" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D741" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E741" s="6">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
       <c r="F741" s="6"/>
       <c r="G741" s="6"/>
-      <c r="H741" s="6"/>
+      <c r="H741" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I741" s="6"/>
       <c r="J741" s="6"/>
       <c r="K741" s="6"/>
-      <c r="L741" s="6"/>
+      <c r="L741" s="5">
+        <v>2.0</v>
+      </c>
       <c r="M741" s="6"/>
       <c r="N741" s="6"/>
       <c r="O741" s="6"/>
       <c r="P741" s="6"/>
       <c r="Q741" s="6"/>
       <c r="R741" s="6"/>
-      <c r="S741" s="6"/>
+      <c r="S741" s="5">
+        <v>1.0</v>
+      </c>
       <c r="T741" s="6"/>
       <c r="U741" s="6"/>
       <c r="V741" s="6"/>
@@ -37036,22 +37562,40 @@
       <c r="AD741" s="6"/>
     </row>
     <row r="742">
-      <c r="A742" s="8"/>
-      <c r="B742" s="8"/>
-      <c r="C742" s="8"/>
-      <c r="D742" s="8"/>
-      <c r="E742" s="8"/>
-      <c r="F742" s="8"/>
+      <c r="A742" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B742" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C742" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="D742" s="8">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E742" s="8">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="F742" s="7">
+        <v>3.0</v>
+      </c>
       <c r="G742" s="8"/>
       <c r="H742" s="8"/>
       <c r="I742" s="8"/>
       <c r="J742" s="8"/>
-      <c r="K742" s="8"/>
+      <c r="K742" s="7">
+        <v>1.0</v>
+      </c>
       <c r="L742" s="8"/>
       <c r="M742" s="8"/>
       <c r="N742" s="8"/>
       <c r="O742" s="8"/>
-      <c r="P742" s="8"/>
+      <c r="P742" s="7">
+        <v>2.0</v>
+      </c>
       <c r="Q742" s="8"/>
       <c r="R742" s="8"/>
       <c r="S742" s="8"/>
@@ -37068,21 +37612,39 @@
       <c r="AD742" s="8"/>
     </row>
     <row r="743">
-      <c r="A743" s="6"/>
-      <c r="B743" s="6"/>
-      <c r="C743" s="6"/>
-      <c r="D743" s="6"/>
-      <c r="E743" s="6"/>
+      <c r="A743" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B743" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C743" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D743" s="6">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E743" s="6">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
       <c r="F743" s="6"/>
       <c r="G743" s="6"/>
-      <c r="H743" s="6"/>
+      <c r="H743" s="5">
+        <v>6.0</v>
+      </c>
       <c r="I743" s="6"/>
       <c r="J743" s="6"/>
-      <c r="K743" s="6"/>
+      <c r="K743" s="5">
+        <v>4.0</v>
+      </c>
       <c r="L743" s="6"/>
       <c r="M743" s="6"/>
       <c r="N743" s="6"/>
-      <c r="O743" s="6"/>
+      <c r="O743" s="5">
+        <v>3.0</v>
+      </c>
       <c r="P743" s="6"/>
       <c r="Q743" s="6"/>
       <c r="R743" s="6"/>
@@ -37100,25 +37662,43 @@
       <c r="AD743" s="6"/>
     </row>
     <row r="744">
-      <c r="A744" s="8"/>
-      <c r="B744" s="8"/>
-      <c r="C744" s="8"/>
-      <c r="D744" s="8"/>
-      <c r="E744" s="8"/>
+      <c r="A744" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B744" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C744" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="D744" s="8">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E744" s="8">
+        <f t="shared" si="2"/>
+        <v>510</v>
+      </c>
       <c r="F744" s="8"/>
       <c r="G744" s="8"/>
       <c r="H744" s="8"/>
       <c r="I744" s="8"/>
       <c r="J744" s="8"/>
       <c r="K744" s="8"/>
-      <c r="L744" s="8"/>
+      <c r="L744" s="7">
+        <v>5.0</v>
+      </c>
       <c r="M744" s="8"/>
       <c r="N744" s="8"/>
       <c r="O744" s="8"/>
       <c r="P744" s="8"/>
       <c r="Q744" s="8"/>
-      <c r="R744" s="8"/>
-      <c r="S744" s="8"/>
+      <c r="R744" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="S744" s="7">
+        <v>4.0</v>
+      </c>
       <c r="T744" s="8"/>
       <c r="U744" s="8"/>
       <c r="V744" s="8"/>
@@ -37132,25 +37712,43 @@
       <c r="AD744" s="8"/>
     </row>
     <row r="745">
-      <c r="A745" s="6"/>
-      <c r="B745" s="6"/>
-      <c r="C745" s="6"/>
-      <c r="D745" s="6"/>
-      <c r="E745" s="6"/>
+      <c r="A745" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B745" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C745" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D745" s="6">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E745" s="6">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
       <c r="F745" s="6"/>
       <c r="G745" s="6"/>
-      <c r="H745" s="6"/>
+      <c r="H745" s="5">
+        <v>2.0</v>
+      </c>
       <c r="I745" s="6"/>
       <c r="J745" s="6"/>
       <c r="K745" s="6"/>
-      <c r="L745" s="6"/>
+      <c r="L745" s="5">
+        <v>3.0</v>
+      </c>
       <c r="M745" s="6"/>
       <c r="N745" s="6"/>
       <c r="O745" s="6"/>
       <c r="P745" s="6"/>
       <c r="Q745" s="6"/>
       <c r="R745" s="6"/>
-      <c r="S745" s="6"/>
+      <c r="S745" s="5">
+        <v>1.0</v>
+      </c>
       <c r="T745" s="6"/>
       <c r="U745" s="6"/>
       <c r="V745" s="6"/>
@@ -37164,21 +37762,39 @@
       <c r="AD745" s="6"/>
     </row>
     <row r="746">
-      <c r="A746" s="8"/>
-      <c r="B746" s="8"/>
-      <c r="C746" s="8"/>
-      <c r="D746" s="8"/>
-      <c r="E746" s="8"/>
+      <c r="A746" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B746" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C746" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="D746" s="8">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="E746" s="8">
+        <f t="shared" si="2"/>
+        <v>274</v>
+      </c>
       <c r="F746" s="8"/>
       <c r="G746" s="8"/>
-      <c r="H746" s="8"/>
+      <c r="H746" s="7">
+        <v>6.0</v>
+      </c>
       <c r="I746" s="8"/>
       <c r="J746" s="8"/>
-      <c r="K746" s="8"/>
+      <c r="K746" s="7">
+        <v>6.0</v>
+      </c>
       <c r="L746" s="8"/>
       <c r="M746" s="8"/>
       <c r="N746" s="8"/>
-      <c r="O746" s="8"/>
+      <c r="O746" s="7">
+        <v>5.0</v>
+      </c>
       <c r="P746" s="8"/>
       <c r="Q746" s="8"/>
       <c r="R746" s="8"/>
@@ -37196,24 +37812,42 @@
       <c r="AD746" s="8"/>
     </row>
     <row r="747">
-      <c r="A747" s="6"/>
-      <c r="B747" s="6"/>
-      <c r="C747" s="6"/>
-      <c r="D747" s="6"/>
-      <c r="E747" s="6"/>
+      <c r="A747" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B747" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C747" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="D747" s="6">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="E747" s="6">
+        <f t="shared" si="2"/>
+        <v>232</v>
+      </c>
       <c r="F747" s="6"/>
       <c r="G747" s="6"/>
       <c r="H747" s="6"/>
       <c r="I747" s="6"/>
       <c r="J747" s="6"/>
-      <c r="K747" s="6"/>
-      <c r="L747" s="6"/>
+      <c r="K747" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="L747" s="5">
+        <v>11.0</v>
+      </c>
       <c r="M747" s="6"/>
       <c r="N747" s="6"/>
       <c r="O747" s="6"/>
       <c r="P747" s="6"/>
       <c r="Q747" s="6"/>
-      <c r="R747" s="6"/>
+      <c r="R747" s="5">
+        <v>4.0</v>
+      </c>
       <c r="S747" s="6"/>
       <c r="T747" s="6"/>
       <c r="U747" s="6"/>
@@ -37228,25 +37862,43 @@
       <c r="AD747" s="6"/>
     </row>
     <row r="748">
-      <c r="A748" s="8"/>
-      <c r="B748" s="8"/>
-      <c r="C748" s="8"/>
-      <c r="D748" s="8"/>
-      <c r="E748" s="8"/>
+      <c r="A748" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B748" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C748" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="D748" s="8">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="E748" s="8">
+        <f t="shared" si="2"/>
+        <v>462</v>
+      </c>
       <c r="F748" s="8"/>
       <c r="G748" s="8"/>
       <c r="H748" s="8"/>
       <c r="I748" s="8"/>
-      <c r="J748" s="8"/>
+      <c r="J748" s="7">
+        <v>6.0</v>
+      </c>
       <c r="K748" s="8"/>
       <c r="L748" s="8"/>
       <c r="M748" s="8"/>
-      <c r="N748" s="8"/>
+      <c r="N748" s="7">
+        <v>4.0</v>
+      </c>
       <c r="O748" s="8"/>
       <c r="P748" s="8"/>
       <c r="Q748" s="8"/>
       <c r="R748" s="8"/>
-      <c r="S748" s="8"/>
+      <c r="S748" s="7">
+        <v>5.0</v>
+      </c>
       <c r="T748" s="8"/>
       <c r="U748" s="8"/>
       <c r="V748" s="8"/>
@@ -37260,21 +37912,39 @@
       <c r="AD748" s="8"/>
     </row>
     <row r="749">
-      <c r="A749" s="6"/>
-      <c r="B749" s="6"/>
-      <c r="C749" s="6"/>
-      <c r="D749" s="6"/>
-      <c r="E749" s="6"/>
+      <c r="A749" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B749" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C749" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="D749" s="6">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="E749" s="6">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
       <c r="F749" s="6"/>
       <c r="G749" s="6"/>
-      <c r="H749" s="6"/>
+      <c r="H749" s="5">
+        <v>5.0</v>
+      </c>
       <c r="I749" s="6"/>
       <c r="J749" s="6"/>
-      <c r="K749" s="6"/>
+      <c r="K749" s="5">
+        <v>3.0</v>
+      </c>
       <c r="L749" s="6"/>
       <c r="M749" s="6"/>
       <c r="N749" s="6"/>
-      <c r="O749" s="6"/>
+      <c r="O749" s="5">
+        <v>2.0</v>
+      </c>
       <c r="P749" s="6"/>
       <c r="Q749" s="6"/>
       <c r="R749" s="6"/>
@@ -37292,12 +37962,26 @@
       <c r="AD749" s="6"/>
     </row>
     <row r="750">
-      <c r="A750" s="8"/>
-      <c r="B750" s="8"/>
-      <c r="C750" s="8"/>
-      <c r="D750" s="8"/>
-      <c r="E750" s="8"/>
-      <c r="F750" s="8"/>
+      <c r="A750" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B750" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C750" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="D750" s="8">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="E750" s="8">
+        <f t="shared" si="2"/>
+        <v>366</v>
+      </c>
+      <c r="F750" s="7">
+        <v>8.0</v>
+      </c>
       <c r="G750" s="8"/>
       <c r="H750" s="8"/>
       <c r="I750" s="8"/>
@@ -37309,8 +37993,12 @@
       <c r="O750" s="8"/>
       <c r="P750" s="8"/>
       <c r="Q750" s="8"/>
-      <c r="R750" s="8"/>
-      <c r="S750" s="8"/>
+      <c r="R750" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="S750" s="7">
+        <v>2.0</v>
+      </c>
       <c r="T750" s="8"/>
       <c r="U750" s="8"/>
       <c r="V750" s="8"/>
@@ -37324,20 +38012,38 @@
       <c r="AD750" s="8"/>
     </row>
     <row r="751">
-      <c r="A751" s="6"/>
-      <c r="B751" s="6"/>
-      <c r="C751" s="6"/>
-      <c r="D751" s="6"/>
-      <c r="E751" s="6"/>
+      <c r="A751" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B751" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C751" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D751" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E751" s="6">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
       <c r="F751" s="6"/>
       <c r="G751" s="6"/>
       <c r="H751" s="6"/>
       <c r="I751" s="6"/>
-      <c r="J751" s="6"/>
-      <c r="K751" s="6"/>
+      <c r="J751" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="K751" s="5">
+        <v>3.0</v>
+      </c>
       <c r="L751" s="6"/>
       <c r="M751" s="6"/>
-      <c r="N751" s="6"/>
+      <c r="N751" s="5">
+        <v>1.0</v>
+      </c>
       <c r="O751" s="6"/>
       <c r="P751" s="6"/>
       <c r="Q751" s="6"/>
@@ -37356,24 +38062,42 @@
       <c r="AD751" s="6"/>
     </row>
     <row r="752">
-      <c r="A752" s="8"/>
-      <c r="B752" s="8"/>
-      <c r="C752" s="8"/>
-      <c r="D752" s="8"/>
-      <c r="E752" s="8"/>
+      <c r="A752" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B752" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C752" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="D752" s="8">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="E752" s="8">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
       <c r="F752" s="8"/>
       <c r="G752" s="8"/>
       <c r="H752" s="8"/>
       <c r="I752" s="8"/>
       <c r="J752" s="8"/>
-      <c r="K752" s="8"/>
-      <c r="L752" s="8"/>
+      <c r="K752" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="L752" s="7">
+        <v>12.0</v>
+      </c>
       <c r="M752" s="8"/>
       <c r="N752" s="8"/>
       <c r="O752" s="8"/>
       <c r="P752" s="8"/>
       <c r="Q752" s="8"/>
-      <c r="R752" s="8"/>
+      <c r="R752" s="7">
+        <v>5.0</v>
+      </c>
       <c r="S752" s="8"/>
       <c r="T752" s="8"/>
       <c r="U752" s="8"/>
@@ -37388,17 +38112,33 @@
       <c r="AD752" s="8"/>
     </row>
     <row r="753">
-      <c r="A753" s="6"/>
-      <c r="B753" s="6"/>
-      <c r="C753" s="6"/>
-      <c r="D753" s="6"/>
-      <c r="E753" s="6"/>
+      <c r="A753" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B753" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C753" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="D753" s="6">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="E753" s="6">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
       <c r="F753" s="6"/>
       <c r="G753" s="6"/>
-      <c r="H753" s="6"/>
+      <c r="H753" s="5">
+        <v>9.0</v>
+      </c>
       <c r="I753" s="6"/>
       <c r="J753" s="6"/>
-      <c r="K753" s="6"/>
+      <c r="K753" s="5">
+        <v>5.0</v>
+      </c>
       <c r="L753" s="6"/>
       <c r="M753" s="6"/>
       <c r="N753" s="6"/>
@@ -37406,7 +38146,9 @@
       <c r="P753" s="6"/>
       <c r="Q753" s="6"/>
       <c r="R753" s="6"/>
-      <c r="S753" s="6"/>
+      <c r="S753" s="5">
+        <v>2.0</v>
+      </c>
       <c r="T753" s="6"/>
       <c r="U753" s="6"/>
       <c r="V753" s="6"/>
@@ -37420,24 +38162,42 @@
       <c r="AD753" s="6"/>
     </row>
     <row r="754">
-      <c r="A754" s="8"/>
-      <c r="B754" s="8"/>
-      <c r="C754" s="8"/>
-      <c r="D754" s="8"/>
-      <c r="E754" s="8"/>
+      <c r="A754" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B754" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C754" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D754" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E754" s="8">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
       <c r="F754" s="8"/>
       <c r="G754" s="8"/>
       <c r="H754" s="8"/>
       <c r="I754" s="8"/>
       <c r="J754" s="8"/>
-      <c r="K754" s="8"/>
-      <c r="L754" s="8"/>
+      <c r="K754" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L754" s="7">
+        <v>2.0</v>
+      </c>
       <c r="M754" s="8"/>
       <c r="N754" s="8"/>
       <c r="O754" s="8"/>
       <c r="P754" s="8"/>
       <c r="Q754" s="8"/>
-      <c r="R754" s="8"/>
+      <c r="R754" s="7">
+        <v>1.0</v>
+      </c>
       <c r="S754" s="8"/>
       <c r="T754" s="8"/>
       <c r="U754" s="8"/>
@@ -37452,25 +38212,43 @@
       <c r="AD754" s="8"/>
     </row>
     <row r="755">
-      <c r="A755" s="6"/>
-      <c r="B755" s="6"/>
-      <c r="C755" s="6"/>
-      <c r="D755" s="6"/>
-      <c r="E755" s="6"/>
+      <c r="A755" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B755" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C755" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="D755" s="6">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="E755" s="6">
+        <f t="shared" si="2"/>
+        <v>316</v>
+      </c>
       <c r="F755" s="6"/>
       <c r="G755" s="6"/>
       <c r="H755" s="6"/>
       <c r="I755" s="6"/>
-      <c r="J755" s="6"/>
+      <c r="J755" s="5">
+        <v>8.0</v>
+      </c>
       <c r="K755" s="6"/>
       <c r="L755" s="6"/>
       <c r="M755" s="6"/>
-      <c r="N755" s="6"/>
+      <c r="N755" s="5">
+        <v>4.0</v>
+      </c>
       <c r="O755" s="6"/>
       <c r="P755" s="6"/>
       <c r="Q755" s="6"/>
       <c r="R755" s="6"/>
-      <c r="S755" s="6"/>
+      <c r="S755" s="5">
+        <v>2.0</v>
+      </c>
       <c r="T755" s="6"/>
       <c r="U755" s="6"/>
       <c r="V755" s="6"/>
@@ -37484,20 +38262,38 @@
       <c r="AD755" s="6"/>
     </row>
     <row r="756">
-      <c r="A756" s="8"/>
-      <c r="B756" s="8"/>
-      <c r="C756" s="8"/>
-      <c r="D756" s="8"/>
-      <c r="E756" s="8"/>
+      <c r="A756" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B756" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C756" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="D756" s="8">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="E756" s="8">
+        <f t="shared" si="2"/>
+        <v>528</v>
+      </c>
       <c r="F756" s="8"/>
       <c r="G756" s="8"/>
       <c r="H756" s="8"/>
       <c r="I756" s="8"/>
-      <c r="J756" s="8"/>
-      <c r="K756" s="8"/>
+      <c r="J756" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="K756" s="7">
+        <v>8.0</v>
+      </c>
       <c r="L756" s="8"/>
       <c r="M756" s="8"/>
-      <c r="N756" s="8"/>
+      <c r="N756" s="7">
+        <v>10.0</v>
+      </c>
       <c r="O756" s="8"/>
       <c r="P756" s="8"/>
       <c r="Q756" s="8"/>
@@ -37516,20 +38312,38 @@
       <c r="AD756" s="8"/>
     </row>
     <row r="757">
-      <c r="A757" s="6"/>
-      <c r="B757" s="6"/>
-      <c r="C757" s="6"/>
-      <c r="D757" s="6"/>
-      <c r="E757" s="6"/>
+      <c r="A757" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B757" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C757" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="D757" s="6">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="E757" s="6">
+        <f t="shared" si="2"/>
+        <v>586</v>
+      </c>
       <c r="F757" s="6"/>
       <c r="G757" s="6"/>
       <c r="H757" s="6"/>
       <c r="I757" s="6"/>
-      <c r="J757" s="6"/>
-      <c r="K757" s="6"/>
+      <c r="J757" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="K757" s="5">
+        <v>10.0</v>
+      </c>
       <c r="L757" s="6"/>
       <c r="M757" s="6"/>
-      <c r="N757" s="6"/>
+      <c r="N757" s="5">
+        <v>11.0</v>
+      </c>
       <c r="O757" s="6"/>
       <c r="P757" s="6"/>
       <c r="Q757" s="6"/>
@@ -37548,12 +38362,26 @@
       <c r="AD757" s="6"/>
     </row>
     <row r="758">
-      <c r="A758" s="8"/>
-      <c r="B758" s="8"/>
-      <c r="C758" s="8"/>
-      <c r="D758" s="8"/>
-      <c r="E758" s="8"/>
-      <c r="F758" s="8"/>
+      <c r="A758" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B758" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C758" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D758" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E758" s="8">
+        <f t="shared" si="2"/>
+        <v>208</v>
+      </c>
+      <c r="F758" s="7">
+        <v>4.0</v>
+      </c>
       <c r="G758" s="8"/>
       <c r="H758" s="8"/>
       <c r="I758" s="8"/>
@@ -37563,10 +38391,14 @@
       <c r="M758" s="8"/>
       <c r="N758" s="8"/>
       <c r="O758" s="8"/>
-      <c r="P758" s="8"/>
+      <c r="P758" s="7">
+        <v>1.0</v>
+      </c>
       <c r="Q758" s="8"/>
       <c r="R758" s="8"/>
-      <c r="S758" s="8"/>
+      <c r="S758" s="7">
+        <v>3.0</v>
+      </c>
       <c r="T758" s="8"/>
       <c r="U758" s="8"/>
       <c r="V758" s="8"/>
@@ -37580,24 +38412,42 @@
       <c r="AD758" s="8"/>
     </row>
     <row r="759">
-      <c r="A759" s="6"/>
-      <c r="B759" s="6"/>
-      <c r="C759" s="6"/>
-      <c r="D759" s="6"/>
-      <c r="E759" s="6"/>
+      <c r="A759" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B759" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C759" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="D759" s="6">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="E759" s="6">
+        <f t="shared" si="2"/>
+        <v>622</v>
+      </c>
       <c r="F759" s="6"/>
       <c r="G759" s="6"/>
       <c r="H759" s="6"/>
       <c r="I759" s="6"/>
       <c r="J759" s="6"/>
-      <c r="K759" s="6"/>
+      <c r="K759" s="5">
+        <v>11.0</v>
+      </c>
       <c r="L759" s="6"/>
       <c r="M759" s="6"/>
       <c r="N759" s="6"/>
-      <c r="O759" s="6"/>
+      <c r="O759" s="5">
+        <v>7.0</v>
+      </c>
       <c r="P759" s="6"/>
       <c r="Q759" s="6"/>
-      <c r="R759" s="6"/>
+      <c r="R759" s="5">
+        <v>5.0</v>
+      </c>
       <c r="S759" s="6"/>
       <c r="T759" s="6"/>
       <c r="U759" s="6"/>
@@ -37612,21 +38462,39 @@
       <c r="AD759" s="6"/>
     </row>
     <row r="760">
-      <c r="A760" s="8"/>
-      <c r="B760" s="8"/>
-      <c r="C760" s="8"/>
-      <c r="D760" s="8"/>
-      <c r="E760" s="8"/>
+      <c r="A760" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B760" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C760" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="D760" s="8">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="E760" s="8">
+        <f t="shared" si="2"/>
+        <v>228</v>
+      </c>
       <c r="F760" s="8"/>
       <c r="G760" s="8"/>
-      <c r="H760" s="8"/>
+      <c r="H760" s="7">
+        <v>8.0</v>
+      </c>
       <c r="I760" s="8"/>
       <c r="J760" s="8"/>
-      <c r="K760" s="8"/>
+      <c r="K760" s="7">
+        <v>6.0</v>
+      </c>
       <c r="L760" s="8"/>
       <c r="M760" s="8"/>
       <c r="N760" s="8"/>
-      <c r="O760" s="8"/>
+      <c r="O760" s="7">
+        <v>4.0</v>
+      </c>
       <c r="P760" s="8"/>
       <c r="Q760" s="8"/>
       <c r="R760" s="8"/>
@@ -37644,12 +38512,26 @@
       <c r="AD760" s="8"/>
     </row>
     <row r="761">
-      <c r="A761" s="6"/>
-      <c r="B761" s="6"/>
-      <c r="C761" s="6"/>
-      <c r="D761" s="6"/>
-      <c r="E761" s="6"/>
-      <c r="F761" s="6"/>
+      <c r="A761" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B761" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C761" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="D761" s="6">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="E761" s="6">
+        <f t="shared" si="2"/>
+        <v>266</v>
+      </c>
+      <c r="F761" s="5">
+        <v>8.0</v>
+      </c>
       <c r="G761" s="6"/>
       <c r="H761" s="6"/>
       <c r="I761" s="6"/>
@@ -37658,8 +38540,12 @@
       <c r="L761" s="6"/>
       <c r="M761" s="6"/>
       <c r="N761" s="6"/>
-      <c r="O761" s="6"/>
-      <c r="P761" s="6"/>
+      <c r="O761" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="P761" s="5">
+        <v>2.0</v>
+      </c>
       <c r="Q761" s="6"/>
       <c r="R761" s="6"/>
       <c r="S761" s="6"/>
@@ -37676,25 +38562,43 @@
       <c r="AD761" s="6"/>
     </row>
     <row r="762">
-      <c r="A762" s="8"/>
-      <c r="B762" s="8"/>
-      <c r="C762" s="8"/>
-      <c r="D762" s="8"/>
-      <c r="E762" s="8"/>
+      <c r="A762" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B762" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C762" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D762" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E762" s="8">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
       <c r="F762" s="8"/>
       <c r="G762" s="8"/>
       <c r="H762" s="8"/>
       <c r="I762" s="8"/>
       <c r="J762" s="8"/>
       <c r="K762" s="8"/>
-      <c r="L762" s="8"/>
+      <c r="L762" s="7">
+        <v>3.0</v>
+      </c>
       <c r="M762" s="8"/>
       <c r="N762" s="8"/>
       <c r="O762" s="8"/>
       <c r="P762" s="8"/>
       <c r="Q762" s="8"/>
-      <c r="R762" s="8"/>
-      <c r="S762" s="8"/>
+      <c r="R762" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="S762" s="7">
+        <v>1.0</v>
+      </c>
       <c r="T762" s="8"/>
       <c r="U762" s="8"/>
       <c r="V762" s="8"/>
@@ -37708,12 +38612,26 @@
       <c r="AD762" s="8"/>
     </row>
     <row r="763">
-      <c r="A763" s="6"/>
-      <c r="B763" s="6"/>
-      <c r="C763" s="6"/>
-      <c r="D763" s="6"/>
-      <c r="E763" s="6"/>
-      <c r="F763" s="6"/>
+      <c r="A763" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B763" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C763" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="D763" s="6">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="E763" s="6">
+        <f t="shared" si="2"/>
+        <v>920</v>
+      </c>
+      <c r="F763" s="5">
+        <v>10.0</v>
+      </c>
       <c r="G763" s="6"/>
       <c r="H763" s="6"/>
       <c r="I763" s="6"/>
@@ -37723,10 +38641,14 @@
       <c r="M763" s="6"/>
       <c r="N763" s="6"/>
       <c r="O763" s="6"/>
-      <c r="P763" s="6"/>
+      <c r="P763" s="5">
+        <v>7.0</v>
+      </c>
       <c r="Q763" s="6"/>
       <c r="R763" s="6"/>
-      <c r="S763" s="6"/>
+      <c r="S763" s="5">
+        <v>11.0</v>
+      </c>
       <c r="T763" s="6"/>
       <c r="U763" s="6"/>
       <c r="V763" s="6"/>
@@ -37740,12 +38662,26 @@
       <c r="AD763" s="6"/>
     </row>
     <row r="764">
-      <c r="A764" s="8"/>
-      <c r="B764" s="8"/>
-      <c r="C764" s="8"/>
-      <c r="D764" s="8"/>
-      <c r="E764" s="8"/>
-      <c r="F764" s="8"/>
+      <c r="A764" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B764" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C764" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="D764" s="8">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="E764" s="8">
+        <f t="shared" si="2"/>
+        <v>670</v>
+      </c>
+      <c r="F764" s="7">
+        <v>10.0</v>
+      </c>
       <c r="G764" s="8"/>
       <c r="H764" s="8"/>
       <c r="I764" s="8"/>
@@ -37755,10 +38691,14 @@
       <c r="M764" s="8"/>
       <c r="N764" s="8"/>
       <c r="O764" s="8"/>
-      <c r="P764" s="8"/>
+      <c r="P764" s="7">
+        <v>5.0</v>
+      </c>
       <c r="Q764" s="8"/>
       <c r="R764" s="8"/>
-      <c r="S764" s="8"/>
+      <c r="S764" s="7">
+        <v>8.0</v>
+      </c>
       <c r="T764" s="8"/>
       <c r="U764" s="8"/>
       <c r="V764" s="8"/>
@@ -37772,11 +38712,23 @@
       <c r="AD764" s="8"/>
     </row>
     <row r="765">
-      <c r="A765" s="6"/>
-      <c r="B765" s="6"/>
-      <c r="C765" s="6"/>
-      <c r="D765" s="6"/>
-      <c r="E765" s="6"/>
+      <c r="A765" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B765" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C765" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D765" s="6">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="E765" s="6">
+        <f t="shared" si="2"/>
+        <v>950</v>
+      </c>
       <c r="F765" s="6"/>
       <c r="G765" s="6"/>
       <c r="H765" s="6"/>
@@ -37784,7 +38736,9 @@
       <c r="J765" s="6"/>
       <c r="K765" s="6"/>
       <c r="L765" s="6"/>
-      <c r="M765" s="6"/>
+      <c r="M765" s="5">
+        <v>3.0</v>
+      </c>
       <c r="N765" s="6"/>
       <c r="O765" s="6"/>
       <c r="P765" s="6"/>
@@ -37794,7 +38748,9 @@
       <c r="T765" s="6"/>
       <c r="U765" s="6"/>
       <c r="V765" s="6"/>
-      <c r="W765" s="6"/>
+      <c r="W765" s="5">
+        <v>4.0</v>
+      </c>
       <c r="X765" s="6"/>
       <c r="Y765" s="6"/>
       <c r="Z765" s="6"/>
@@ -37804,11 +38760,23 @@
       <c r="AD765" s="6"/>
     </row>
     <row r="766">
-      <c r="A766" s="8"/>
-      <c r="B766" s="8"/>
-      <c r="C766" s="8"/>
-      <c r="D766" s="8"/>
-      <c r="E766" s="8"/>
+      <c r="A766" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B766" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C766" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D766" s="8">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="E766" s="8">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
       <c r="F766" s="8"/>
       <c r="G766" s="8"/>
       <c r="H766" s="8"/>
@@ -37817,15 +38785,21 @@
       <c r="K766" s="8"/>
       <c r="L766" s="8"/>
       <c r="M766" s="8"/>
-      <c r="N766" s="8"/>
+      <c r="N766" s="7">
+        <v>2.0</v>
+      </c>
       <c r="O766" s="8"/>
       <c r="P766" s="8"/>
       <c r="Q766" s="8"/>
-      <c r="R766" s="8"/>
+      <c r="R766" s="7">
+        <v>2.0</v>
+      </c>
       <c r="S766" s="8"/>
       <c r="T766" s="8"/>
       <c r="U766" s="8"/>
-      <c r="V766" s="8"/>
+      <c r="V766" s="7">
+        <v>2.0</v>
+      </c>
       <c r="W766" s="8"/>
       <c r="X766" s="8"/>
       <c r="Y766" s="8"/>
@@ -37836,11 +38810,23 @@
       <c r="AD766" s="8"/>
     </row>
     <row r="767">
-      <c r="A767" s="6"/>
-      <c r="B767" s="6"/>
-      <c r="C767" s="6"/>
-      <c r="D767" s="6"/>
-      <c r="E767" s="6"/>
+      <c r="A767" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B767" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C767" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D767" s="6">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="E767" s="6">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
       <c r="F767" s="6"/>
       <c r="G767" s="6"/>
       <c r="H767" s="6"/>
@@ -37849,15 +38835,21 @@
       <c r="K767" s="6"/>
       <c r="L767" s="6"/>
       <c r="M767" s="6"/>
-      <c r="N767" s="6"/>
+      <c r="N767" s="5">
+        <v>4.0</v>
+      </c>
       <c r="O767" s="6"/>
       <c r="P767" s="6"/>
       <c r="Q767" s="6"/>
-      <c r="R767" s="6"/>
+      <c r="R767" s="5">
+        <v>4.0</v>
+      </c>
       <c r="S767" s="6"/>
       <c r="T767" s="6"/>
       <c r="U767" s="6"/>
-      <c r="V767" s="6"/>
+      <c r="V767" s="5">
+        <v>5.0</v>
+      </c>
       <c r="W767" s="6"/>
       <c r="X767" s="6"/>
       <c r="Y767" s="6"/>
@@ -37868,11 +38860,23 @@
       <c r="AD767" s="6"/>
     </row>
     <row r="768">
-      <c r="A768" s="8"/>
-      <c r="B768" s="8"/>
-      <c r="C768" s="8"/>
-      <c r="D768" s="8"/>
-      <c r="E768" s="8"/>
+      <c r="A768" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B768" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C768" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D768" s="8">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="E768" s="8">
+        <f t="shared" si="2"/>
+        <v>1150</v>
+      </c>
       <c r="F768" s="8"/>
       <c r="G768" s="8"/>
       <c r="H768" s="8"/>
@@ -37884,7 +38888,9 @@
       <c r="N768" s="8"/>
       <c r="O768" s="8"/>
       <c r="P768" s="8"/>
-      <c r="Q768" s="8"/>
+      <c r="Q768" s="7">
+        <v>3.0</v>
+      </c>
       <c r="R768" s="8"/>
       <c r="S768" s="8"/>
       <c r="T768" s="8"/>
@@ -37892,7 +38898,9 @@
       <c r="V768" s="8"/>
       <c r="W768" s="8"/>
       <c r="X768" s="8"/>
-      <c r="Y768" s="8"/>
+      <c r="Y768" s="7">
+        <v>5.0</v>
+      </c>
       <c r="Z768" s="8"/>
       <c r="AA768" s="8"/>
       <c r="AB768" s="8"/>
@@ -37900,11 +38908,23 @@
       <c r="AD768" s="8"/>
     </row>
     <row r="769">
-      <c r="A769" s="6"/>
-      <c r="B769" s="6"/>
-      <c r="C769" s="6"/>
-      <c r="D769" s="6"/>
-      <c r="E769" s="6"/>
+      <c r="A769" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B769" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C769" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D769" s="6">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="E769" s="6">
+        <f t="shared" si="2"/>
+        <v>550</v>
+      </c>
       <c r="F769" s="6"/>
       <c r="G769" s="6"/>
       <c r="H769" s="6"/>
@@ -37915,13 +38935,19 @@
       <c r="M769" s="6"/>
       <c r="N769" s="6"/>
       <c r="O769" s="6"/>
-      <c r="P769" s="6"/>
+      <c r="P769" s="5">
+        <v>3.0</v>
+      </c>
       <c r="Q769" s="6"/>
       <c r="R769" s="6"/>
       <c r="S769" s="6"/>
-      <c r="T769" s="6"/>
+      <c r="T769" s="5">
+        <v>1.0</v>
+      </c>
       <c r="U769" s="6"/>
-      <c r="V769" s="6"/>
+      <c r="V769" s="5">
+        <v>1.0</v>
+      </c>
       <c r="W769" s="6"/>
       <c r="X769" s="6"/>
       <c r="Y769" s="6"/>
@@ -37932,12 +38958,26 @@
       <c r="AD769" s="6"/>
     </row>
     <row r="770">
-      <c r="A770" s="8"/>
-      <c r="B770" s="8"/>
-      <c r="C770" s="8"/>
-      <c r="D770" s="8"/>
-      <c r="E770" s="8"/>
-      <c r="F770" s="8"/>
+      <c r="A770" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B770" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C770" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D770" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E770" s="8">
+        <f t="shared" si="2"/>
+        <v>260</v>
+      </c>
+      <c r="F770" s="7">
+        <v>5.0</v>
+      </c>
       <c r="G770" s="8"/>
       <c r="H770" s="8"/>
       <c r="I770" s="8"/>
@@ -37947,10 +38987,14 @@
       <c r="M770" s="8"/>
       <c r="N770" s="8"/>
       <c r="O770" s="8"/>
-      <c r="P770" s="8"/>
+      <c r="P770" s="7">
+        <v>2.0</v>
+      </c>
       <c r="Q770" s="8"/>
       <c r="R770" s="8"/>
-      <c r="S770" s="8"/>
+      <c r="S770" s="7">
+        <v>3.0</v>
+      </c>
       <c r="T770" s="8"/>
       <c r="U770" s="8"/>
       <c r="V770" s="8"/>
@@ -37964,24 +39008,42 @@
       <c r="AD770" s="8"/>
     </row>
     <row r="771">
-      <c r="A771" s="6"/>
-      <c r="B771" s="6"/>
-      <c r="C771" s="6"/>
-      <c r="D771" s="6"/>
-      <c r="E771" s="6"/>
-      <c r="F771" s="6"/>
+      <c r="A771" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B771" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C771" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D771" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E771" s="6">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F771" s="5">
+        <v>2.0</v>
+      </c>
       <c r="G771" s="6"/>
       <c r="H771" s="6"/>
       <c r="I771" s="6"/>
       <c r="J771" s="6"/>
       <c r="K771" s="6"/>
-      <c r="L771" s="6"/>
+      <c r="L771" s="5">
+        <v>3.0</v>
+      </c>
       <c r="M771" s="6"/>
       <c r="N771" s="6"/>
       <c r="O771" s="6"/>
       <c r="P771" s="6"/>
       <c r="Q771" s="6"/>
-      <c r="R771" s="6"/>
+      <c r="R771" s="5">
+        <v>1.0</v>
+      </c>
       <c r="S771" s="6"/>
       <c r="T771" s="6"/>
       <c r="U771" s="6"/>
@@ -37996,21 +39058,39 @@
       <c r="AD771" s="6"/>
     </row>
     <row r="772">
-      <c r="A772" s="8"/>
-      <c r="B772" s="8"/>
-      <c r="C772" s="8"/>
-      <c r="D772" s="8"/>
-      <c r="E772" s="8"/>
+      <c r="A772" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B772" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C772" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D772" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E772" s="8">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
       <c r="F772" s="8"/>
       <c r="G772" s="8"/>
-      <c r="H772" s="8"/>
+      <c r="H772" s="7">
+        <v>3.0</v>
+      </c>
       <c r="I772" s="8"/>
       <c r="J772" s="8"/>
-      <c r="K772" s="8"/>
+      <c r="K772" s="7">
+        <v>2.0</v>
+      </c>
       <c r="L772" s="8"/>
       <c r="M772" s="8"/>
       <c r="N772" s="8"/>
-      <c r="O772" s="8"/>
+      <c r="O772" s="7">
+        <v>2.0</v>
+      </c>
       <c r="P772" s="8"/>
       <c r="Q772" s="8"/>
       <c r="R772" s="8"/>
@@ -38028,25 +39108,43 @@
       <c r="AD772" s="8"/>
     </row>
     <row r="773">
-      <c r="A773" s="6"/>
-      <c r="B773" s="6"/>
-      <c r="C773" s="6"/>
-      <c r="D773" s="6"/>
-      <c r="E773" s="6"/>
+      <c r="A773" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B773" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C773" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D773" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E773" s="6">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
       <c r="F773" s="6"/>
       <c r="G773" s="6"/>
-      <c r="H773" s="6"/>
+      <c r="H773" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I773" s="6"/>
       <c r="J773" s="6"/>
       <c r="K773" s="6"/>
-      <c r="L773" s="6"/>
+      <c r="L773" s="5">
+        <v>2.0</v>
+      </c>
       <c r="M773" s="6"/>
       <c r="N773" s="6"/>
       <c r="O773" s="6"/>
       <c r="P773" s="6"/>
       <c r="Q773" s="6"/>
       <c r="R773" s="6"/>
-      <c r="S773" s="6"/>
+      <c r="S773" s="5">
+        <v>1.0</v>
+      </c>
       <c r="T773" s="6"/>
       <c r="U773" s="6"/>
       <c r="V773" s="6"/>
@@ -38060,24 +39158,42 @@
       <c r="AD773" s="6"/>
     </row>
     <row r="774">
-      <c r="A774" s="8"/>
-      <c r="B774" s="8"/>
-      <c r="C774" s="8"/>
-      <c r="D774" s="8"/>
-      <c r="E774" s="8"/>
+      <c r="A774" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B774" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C774" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D774" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E774" s="8">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
       <c r="F774" s="8"/>
       <c r="G774" s="8"/>
       <c r="H774" s="8"/>
       <c r="I774" s="8"/>
       <c r="J774" s="8"/>
-      <c r="K774" s="8"/>
-      <c r="L774" s="8"/>
+      <c r="K774" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="L774" s="7">
+        <v>3.0</v>
+      </c>
       <c r="M774" s="8"/>
       <c r="N774" s="8"/>
       <c r="O774" s="8"/>
       <c r="P774" s="8"/>
       <c r="Q774" s="8"/>
-      <c r="R774" s="8"/>
+      <c r="R774" s="7">
+        <v>1.0</v>
+      </c>
       <c r="S774" s="8"/>
       <c r="T774" s="8"/>
       <c r="U774" s="8"/>
@@ -38092,24 +39208,42 @@
       <c r="AD774" s="8"/>
     </row>
     <row r="775">
-      <c r="A775" s="6"/>
-      <c r="B775" s="6"/>
-      <c r="C775" s="6"/>
-      <c r="D775" s="6"/>
-      <c r="E775" s="6"/>
-      <c r="F775" s="6"/>
+      <c r="A775" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B775" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C775" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="D775" s="6">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="E775" s="6">
+        <f t="shared" si="2"/>
+        <v>280</v>
+      </c>
+      <c r="F775" s="5">
+        <v>6.0</v>
+      </c>
       <c r="G775" s="6"/>
       <c r="H775" s="6"/>
       <c r="I775" s="6"/>
       <c r="J775" s="6"/>
       <c r="K775" s="6"/>
-      <c r="L775" s="6"/>
+      <c r="L775" s="5">
+        <v>9.0</v>
+      </c>
       <c r="M775" s="6"/>
       <c r="N775" s="6"/>
       <c r="O775" s="6"/>
       <c r="P775" s="6"/>
       <c r="Q775" s="6"/>
-      <c r="R775" s="6"/>
+      <c r="R775" s="5">
+        <v>5.0</v>
+      </c>
       <c r="S775" s="6"/>
       <c r="T775" s="6"/>
       <c r="U775" s="6"/>
@@ -38124,12 +39258,26 @@
       <c r="AD775" s="6"/>
     </row>
     <row r="776">
-      <c r="A776" s="8"/>
-      <c r="B776" s="8"/>
-      <c r="C776" s="8"/>
-      <c r="D776" s="8"/>
-      <c r="E776" s="8"/>
-      <c r="F776" s="8"/>
+      <c r="A776" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B776" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C776" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="D776" s="8">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E776" s="8">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="F776" s="7">
+        <v>4.0</v>
+      </c>
       <c r="G776" s="8"/>
       <c r="H776" s="8"/>
       <c r="I776" s="8"/>
@@ -38141,7 +39289,9 @@
       <c r="O776" s="8"/>
       <c r="P776" s="8"/>
       <c r="Q776" s="8"/>
-      <c r="R776" s="8"/>
+      <c r="R776" s="7">
+        <v>2.0</v>
+      </c>
       <c r="S776" s="8"/>
       <c r="T776" s="8"/>
       <c r="U776" s="8"/>
@@ -38156,16 +39306,30 @@
       <c r="AD776" s="8"/>
     </row>
     <row r="777">
-      <c r="A777" s="6"/>
-      <c r="B777" s="6"/>
-      <c r="C777" s="6"/>
-      <c r="D777" s="6"/>
-      <c r="E777" s="6"/>
+      <c r="A777" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B777" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C777" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D777" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E777" s="6">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
       <c r="F777" s="6"/>
       <c r="G777" s="6"/>
       <c r="H777" s="6"/>
       <c r="I777" s="6"/>
-      <c r="J777" s="6"/>
+      <c r="J777" s="5">
+        <v>3.0</v>
+      </c>
       <c r="K777" s="6"/>
       <c r="L777" s="6"/>
       <c r="M777" s="6"/>
@@ -38174,7 +39338,9 @@
       <c r="P777" s="6"/>
       <c r="Q777" s="6"/>
       <c r="R777" s="6"/>
-      <c r="S777" s="6"/>
+      <c r="S777" s="5">
+        <v>1.0</v>
+      </c>
       <c r="T777" s="6"/>
       <c r="U777" s="6"/>
       <c r="V777" s="6"/>
@@ -38188,21 +39354,39 @@
       <c r="AD777" s="6"/>
     </row>
     <row r="778">
-      <c r="A778" s="8"/>
-      <c r="B778" s="8"/>
-      <c r="C778" s="8"/>
-      <c r="D778" s="8"/>
-      <c r="E778" s="8"/>
+      <c r="A778" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B778" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C778" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="D778" s="8">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E778" s="8">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
       <c r="F778" s="8"/>
       <c r="G778" s="8"/>
-      <c r="H778" s="8"/>
+      <c r="H778" s="7">
+        <v>3.0</v>
+      </c>
       <c r="I778" s="8"/>
       <c r="J778" s="8"/>
-      <c r="K778" s="8"/>
+      <c r="K778" s="7">
+        <v>2.0</v>
+      </c>
       <c r="L778" s="8"/>
       <c r="M778" s="8"/>
       <c r="N778" s="8"/>
-      <c r="O778" s="8"/>
+      <c r="O778" s="7">
+        <v>2.0</v>
+      </c>
       <c r="P778" s="8"/>
       <c r="Q778" s="8"/>
       <c r="R778" s="8"/>
@@ -38220,20 +39404,38 @@
       <c r="AD778" s="8"/>
     </row>
     <row r="779">
-      <c r="A779" s="6"/>
-      <c r="B779" s="6"/>
-      <c r="C779" s="6"/>
-      <c r="D779" s="6"/>
-      <c r="E779" s="6"/>
+      <c r="A779" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B779" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C779" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D779" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E779" s="6">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
       <c r="F779" s="6"/>
       <c r="G779" s="6"/>
       <c r="H779" s="6"/>
       <c r="I779" s="6"/>
-      <c r="J779" s="6"/>
-      <c r="K779" s="6"/>
+      <c r="J779" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="K779" s="5">
+        <v>2.0</v>
+      </c>
       <c r="L779" s="6"/>
       <c r="M779" s="6"/>
-      <c r="N779" s="6"/>
+      <c r="N779" s="5">
+        <v>1.0</v>
+      </c>
       <c r="O779" s="6"/>
       <c r="P779" s="6"/>
       <c r="Q779" s="6"/>
@@ -38252,25 +39454,43 @@
       <c r="AD779" s="6"/>
     </row>
     <row r="780">
-      <c r="A780" s="8"/>
-      <c r="B780" s="8"/>
-      <c r="C780" s="8"/>
-      <c r="D780" s="8"/>
-      <c r="E780" s="8"/>
+      <c r="A780" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B780" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C780" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D780" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E780" s="8">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
       <c r="F780" s="8"/>
       <c r="G780" s="8"/>
       <c r="H780" s="8"/>
       <c r="I780" s="8"/>
-      <c r="J780" s="8"/>
+      <c r="J780" s="7">
+        <v>2.0</v>
+      </c>
       <c r="K780" s="8"/>
       <c r="L780" s="8"/>
       <c r="M780" s="8"/>
-      <c r="N780" s="8"/>
+      <c r="N780" s="7">
+        <v>2.0</v>
+      </c>
       <c r="O780" s="8"/>
       <c r="P780" s="8"/>
       <c r="Q780" s="8"/>
       <c r="R780" s="8"/>
-      <c r="S780" s="8"/>
+      <c r="S780" s="7">
+        <v>1.0</v>
+      </c>
       <c r="T780" s="8"/>
       <c r="U780" s="8"/>
       <c r="V780" s="8"/>
@@ -38284,24 +39504,42 @@
       <c r="AD780" s="8"/>
     </row>
     <row r="781">
-      <c r="A781" s="6"/>
-      <c r="B781" s="6"/>
-      <c r="C781" s="6"/>
-      <c r="D781" s="6"/>
-      <c r="E781" s="6"/>
-      <c r="F781" s="6"/>
+      <c r="A781" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B781" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C781" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D781" s="6">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E781" s="6">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="F781" s="5">
+        <v>4.0</v>
+      </c>
       <c r="G781" s="6"/>
       <c r="H781" s="6"/>
       <c r="I781" s="6"/>
       <c r="J781" s="6"/>
       <c r="K781" s="6"/>
-      <c r="L781" s="6"/>
+      <c r="L781" s="5">
+        <v>6.0</v>
+      </c>
       <c r="M781" s="6"/>
       <c r="N781" s="6"/>
       <c r="O781" s="6"/>
       <c r="P781" s="6"/>
       <c r="Q781" s="6"/>
-      <c r="R781" s="6"/>
+      <c r="R781" s="5">
+        <v>3.0</v>
+      </c>
       <c r="S781" s="6"/>
       <c r="T781" s="6"/>
       <c r="U781" s="6"/>
@@ -38316,12 +39554,26 @@
       <c r="AD781" s="6"/>
     </row>
     <row r="782">
-      <c r="A782" s="8"/>
-      <c r="B782" s="8"/>
-      <c r="C782" s="8"/>
-      <c r="D782" s="8"/>
-      <c r="E782" s="8"/>
-      <c r="F782" s="8"/>
+      <c r="A782" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B782" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C782" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D782" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E782" s="8">
+        <f t="shared" si="2"/>
+        <v>206</v>
+      </c>
+      <c r="F782" s="7">
+        <v>3.0</v>
+      </c>
       <c r="G782" s="8"/>
       <c r="H782" s="8"/>
       <c r="I782" s="8"/>
@@ -38330,8 +39582,12 @@
       <c r="L782" s="8"/>
       <c r="M782" s="8"/>
       <c r="N782" s="8"/>
-      <c r="O782" s="8"/>
-      <c r="P782" s="8"/>
+      <c r="O782" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="P782" s="7">
+        <v>2.0</v>
+      </c>
       <c r="Q782" s="8"/>
       <c r="R782" s="8"/>
       <c r="S782" s="8"/>
@@ -38348,21 +39604,39 @@
       <c r="AD782" s="8"/>
     </row>
     <row r="783">
-      <c r="A783" s="6"/>
-      <c r="B783" s="6"/>
-      <c r="C783" s="6"/>
-      <c r="D783" s="6"/>
-      <c r="E783" s="6"/>
+      <c r="A783" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B783" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C783" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D783" s="6">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E783" s="6">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
       <c r="F783" s="6"/>
       <c r="G783" s="6"/>
-      <c r="H783" s="6"/>
+      <c r="H783" s="5">
+        <v>6.0</v>
+      </c>
       <c r="I783" s="6"/>
       <c r="J783" s="6"/>
-      <c r="K783" s="6"/>
+      <c r="K783" s="5">
+        <v>3.0</v>
+      </c>
       <c r="L783" s="6"/>
       <c r="M783" s="6"/>
       <c r="N783" s="6"/>
-      <c r="O783" s="6"/>
+      <c r="O783" s="5">
+        <v>3.0</v>
+      </c>
       <c r="P783" s="6"/>
       <c r="Q783" s="6"/>
       <c r="R783" s="6"/>
@@ -38380,12 +39654,26 @@
       <c r="AD783" s="6"/>
     </row>
     <row r="784">
-      <c r="A784" s="8"/>
-      <c r="B784" s="8"/>
-      <c r="C784" s="8"/>
-      <c r="D784" s="8"/>
-      <c r="E784" s="8"/>
-      <c r="F784" s="8"/>
+      <c r="A784" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B784" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C784" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D784" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E784" s="8">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F784" s="7">
+        <v>4.0</v>
+      </c>
       <c r="G784" s="8"/>
       <c r="H784" s="8"/>
       <c r="I784" s="8"/>
@@ -38412,21 +39700,39 @@
       <c r="AD784" s="8"/>
     </row>
     <row r="785">
-      <c r="A785" s="6"/>
-      <c r="B785" s="6"/>
-      <c r="C785" s="6"/>
-      <c r="D785" s="6"/>
-      <c r="E785" s="6"/>
+      <c r="A785" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B785" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C785" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D785" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E785" s="6">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
       <c r="F785" s="6"/>
       <c r="G785" s="6"/>
-      <c r="H785" s="6"/>
+      <c r="H785" s="5">
+        <v>3.0</v>
+      </c>
       <c r="I785" s="6"/>
       <c r="J785" s="6"/>
-      <c r="K785" s="6"/>
+      <c r="K785" s="5">
+        <v>2.0</v>
+      </c>
       <c r="L785" s="6"/>
       <c r="M785" s="6"/>
       <c r="N785" s="6"/>
-      <c r="O785" s="6"/>
+      <c r="O785" s="5">
+        <v>1.0</v>
+      </c>
       <c r="P785" s="6"/>
       <c r="Q785" s="6"/>
       <c r="R785" s="6"/>
@@ -38444,20 +39750,38 @@
       <c r="AD785" s="6"/>
     </row>
     <row r="786">
-      <c r="A786" s="8"/>
-      <c r="B786" s="8"/>
-      <c r="C786" s="8"/>
-      <c r="D786" s="8"/>
-      <c r="E786" s="8"/>
+      <c r="A786" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B786" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C786" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="D786" s="8">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="E786" s="8">
+        <f t="shared" si="2"/>
+        <v>330</v>
+      </c>
       <c r="F786" s="8"/>
       <c r="G786" s="8"/>
       <c r="H786" s="8"/>
       <c r="I786" s="8"/>
-      <c r="J786" s="8"/>
-      <c r="K786" s="8"/>
+      <c r="J786" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="K786" s="7">
+        <v>9.0</v>
+      </c>
       <c r="L786" s="8"/>
       <c r="M786" s="8"/>
-      <c r="N786" s="8"/>
+      <c r="N786" s="7">
+        <v>6.0</v>
+      </c>
       <c r="O786" s="8"/>
       <c r="P786" s="8"/>
       <c r="Q786" s="8"/>
@@ -38476,21 +39800,39 @@
       <c r="AD786" s="8"/>
     </row>
     <row r="787">
-      <c r="A787" s="6"/>
-      <c r="B787" s="6"/>
-      <c r="C787" s="6"/>
-      <c r="D787" s="6"/>
-      <c r="E787" s="6"/>
+      <c r="A787" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B787" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C787" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D787" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E787" s="6">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
       <c r="F787" s="6"/>
       <c r="G787" s="6"/>
-      <c r="H787" s="6"/>
+      <c r="H787" s="5">
+        <v>3.0</v>
+      </c>
       <c r="I787" s="6"/>
       <c r="J787" s="6"/>
-      <c r="K787" s="6"/>
+      <c r="K787" s="5">
+        <v>2.0</v>
+      </c>
       <c r="L787" s="6"/>
       <c r="M787" s="6"/>
       <c r="N787" s="6"/>
-      <c r="O787" s="6"/>
+      <c r="O787" s="5">
+        <v>1.0</v>
+      </c>
       <c r="P787" s="6"/>
       <c r="Q787" s="6"/>
       <c r="R787" s="6"/>
@@ -38508,12 +39850,26 @@
       <c r="AD787" s="6"/>
     </row>
     <row r="788">
-      <c r="A788" s="8"/>
-      <c r="B788" s="8"/>
-      <c r="C788" s="8"/>
-      <c r="D788" s="8"/>
-      <c r="E788" s="8"/>
-      <c r="F788" s="8"/>
+      <c r="A788" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B788" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C788" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D788" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E788" s="8">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="F788" s="7">
+        <v>2.0</v>
+      </c>
       <c r="G788" s="8"/>
       <c r="H788" s="8"/>
       <c r="I788" s="8"/>
@@ -38522,7 +39878,9 @@
       <c r="L788" s="8"/>
       <c r="M788" s="8"/>
       <c r="N788" s="8"/>
-      <c r="O788" s="8"/>
+      <c r="O788" s="7">
+        <v>1.0</v>
+      </c>
       <c r="P788" s="8"/>
       <c r="Q788" s="8"/>
       <c r="R788" s="8"/>
@@ -38540,17 +39898,33 @@
       <c r="AD788" s="8"/>
     </row>
     <row r="789">
-      <c r="A789" s="6"/>
-      <c r="B789" s="6"/>
-      <c r="C789" s="6"/>
-      <c r="D789" s="6"/>
-      <c r="E789" s="6"/>
+      <c r="A789" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B789" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C789" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D789" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E789" s="6">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
       <c r="F789" s="6"/>
       <c r="G789" s="6"/>
       <c r="H789" s="6"/>
       <c r="I789" s="6"/>
-      <c r="J789" s="6"/>
-      <c r="K789" s="6"/>
+      <c r="J789" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="K789" s="5">
+        <v>3.0</v>
+      </c>
       <c r="L789" s="6"/>
       <c r="M789" s="6"/>
       <c r="N789" s="6"/>
@@ -38572,25 +39946,43 @@
       <c r="AD789" s="6"/>
     </row>
     <row r="790">
-      <c r="A790" s="8"/>
-      <c r="B790" s="8"/>
-      <c r="C790" s="8"/>
-      <c r="D790" s="8"/>
-      <c r="E790" s="8"/>
+      <c r="A790" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B790" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C790" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="D790" s="8">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E790" s="8">
+        <f t="shared" si="2"/>
+        <v>312</v>
+      </c>
       <c r="F790" s="8"/>
       <c r="G790" s="8"/>
       <c r="H790" s="8"/>
       <c r="I790" s="8"/>
-      <c r="J790" s="8"/>
+      <c r="J790" s="7">
+        <v>6.0</v>
+      </c>
       <c r="K790" s="8"/>
       <c r="L790" s="8"/>
       <c r="M790" s="8"/>
-      <c r="N790" s="8"/>
+      <c r="N790" s="7">
+        <v>3.0</v>
+      </c>
       <c r="O790" s="8"/>
       <c r="P790" s="8"/>
       <c r="Q790" s="8"/>
       <c r="R790" s="8"/>
-      <c r="S790" s="8"/>
+      <c r="S790" s="7">
+        <v>3.0</v>
+      </c>
       <c r="T790" s="8"/>
       <c r="U790" s="8"/>
       <c r="V790" s="8"/>
@@ -38604,22 +39996,40 @@
       <c r="AD790" s="8"/>
     </row>
     <row r="791">
-      <c r="A791" s="6"/>
-      <c r="B791" s="6"/>
-      <c r="C791" s="6"/>
-      <c r="D791" s="6"/>
-      <c r="E791" s="6"/>
-      <c r="F791" s="6"/>
+      <c r="A791" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B791" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C791" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D791" s="6">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E791" s="6">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="F791" s="5">
+        <v>3.0</v>
+      </c>
       <c r="G791" s="6"/>
       <c r="H791" s="6"/>
       <c r="I791" s="6"/>
       <c r="J791" s="6"/>
-      <c r="K791" s="6"/>
+      <c r="K791" s="5">
+        <v>2.0</v>
+      </c>
       <c r="L791" s="6"/>
       <c r="M791" s="6"/>
       <c r="N791" s="6"/>
       <c r="O791" s="6"/>
-      <c r="P791" s="6"/>
+      <c r="P791" s="5">
+        <v>3.0</v>
+      </c>
       <c r="Q791" s="6"/>
       <c r="R791" s="6"/>
       <c r="S791" s="6"/>
@@ -38636,25 +40046,43 @@
       <c r="AD791" s="6"/>
     </row>
     <row r="792">
-      <c r="A792" s="8"/>
-      <c r="B792" s="8"/>
-      <c r="C792" s="8"/>
-      <c r="D792" s="8"/>
-      <c r="E792" s="8"/>
+      <c r="A792" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B792" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C792" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="D792" s="8">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E792" s="8">
+        <f t="shared" si="2"/>
+        <v>310</v>
+      </c>
       <c r="F792" s="8"/>
       <c r="G792" s="8"/>
       <c r="H792" s="8"/>
       <c r="I792" s="8"/>
       <c r="J792" s="8"/>
       <c r="K792" s="8"/>
-      <c r="L792" s="8"/>
+      <c r="L792" s="7">
+        <v>5.0</v>
+      </c>
       <c r="M792" s="8"/>
       <c r="N792" s="8"/>
       <c r="O792" s="8"/>
       <c r="P792" s="8"/>
       <c r="Q792" s="8"/>
-      <c r="R792" s="8"/>
-      <c r="S792" s="8"/>
+      <c r="R792" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="S792" s="7">
+        <v>2.0</v>
+      </c>
       <c r="T792" s="8"/>
       <c r="U792" s="8"/>
       <c r="V792" s="8"/>
@@ -38668,25 +40096,43 @@
       <c r="AD792" s="8"/>
     </row>
     <row r="793">
-      <c r="A793" s="6"/>
-      <c r="B793" s="6"/>
-      <c r="C793" s="6"/>
-      <c r="D793" s="6"/>
-      <c r="E793" s="6"/>
+      <c r="A793" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B793" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C793" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D793" s="6">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E793" s="6">
+        <f t="shared" si="2"/>
+        <v>208</v>
+      </c>
       <c r="F793" s="6"/>
       <c r="G793" s="6"/>
       <c r="H793" s="6"/>
       <c r="I793" s="6"/>
-      <c r="J793" s="6"/>
+      <c r="J793" s="5">
+        <v>4.0</v>
+      </c>
       <c r="K793" s="6"/>
       <c r="L793" s="6"/>
       <c r="M793" s="6"/>
-      <c r="N793" s="6"/>
+      <c r="N793" s="5">
+        <v>1.0</v>
+      </c>
       <c r="O793" s="6"/>
       <c r="P793" s="6"/>
       <c r="Q793" s="6"/>
       <c r="R793" s="6"/>
-      <c r="S793" s="6"/>
+      <c r="S793" s="5">
+        <v>3.0</v>
+      </c>
       <c r="T793" s="6"/>
       <c r="U793" s="6"/>
       <c r="V793" s="6"/>
@@ -38700,12 +40146,26 @@
       <c r="AD793" s="6"/>
     </row>
     <row r="794">
-      <c r="A794" s="8"/>
-      <c r="B794" s="8"/>
-      <c r="C794" s="8"/>
-      <c r="D794" s="8"/>
-      <c r="E794" s="8"/>
-      <c r="F794" s="8"/>
+      <c r="A794" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B794" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C794" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="D794" s="8">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="E794" s="8">
+        <f t="shared" si="2"/>
+        <v>1478</v>
+      </c>
+      <c r="F794" s="7">
+        <v>14.0</v>
+      </c>
       <c r="G794" s="8"/>
       <c r="H794" s="8"/>
       <c r="I794" s="8"/>
@@ -38715,10 +40175,14 @@
       <c r="M794" s="8"/>
       <c r="N794" s="8"/>
       <c r="O794" s="8"/>
-      <c r="P794" s="8"/>
+      <c r="P794" s="7">
+        <v>16.0</v>
+      </c>
       <c r="Q794" s="8"/>
       <c r="R794" s="8"/>
-      <c r="S794" s="8"/>
+      <c r="S794" s="7">
+        <v>13.0</v>
+      </c>
       <c r="T794" s="8"/>
       <c r="U794" s="8"/>
       <c r="V794" s="8"/>
@@ -38732,12 +40196,26 @@
       <c r="AD794" s="8"/>
     </row>
     <row r="795">
-      <c r="A795" s="6"/>
-      <c r="B795" s="6"/>
-      <c r="C795" s="6"/>
-      <c r="D795" s="6"/>
-      <c r="E795" s="6"/>
-      <c r="F795" s="6"/>
+      <c r="A795" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B795" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C795" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="D795" s="6">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="E795" s="6">
+        <f t="shared" si="2"/>
+        <v>1676</v>
+      </c>
+      <c r="F795" s="5">
+        <v>38.0</v>
+      </c>
       <c r="G795" s="6"/>
       <c r="H795" s="6"/>
       <c r="I795" s="6"/>
@@ -38747,10 +40225,14 @@
       <c r="M795" s="6"/>
       <c r="N795" s="6"/>
       <c r="O795" s="6"/>
-      <c r="P795" s="6"/>
+      <c r="P795" s="5">
+        <v>19.0</v>
+      </c>
       <c r="Q795" s="6"/>
       <c r="R795" s="6"/>
-      <c r="S795" s="6"/>
+      <c r="S795" s="5">
+        <v>13.0</v>
+      </c>
       <c r="T795" s="6"/>
       <c r="U795" s="6"/>
       <c r="V795" s="6"/>
@@ -38764,21 +40246,39 @@
       <c r="AD795" s="6"/>
     </row>
     <row r="796">
-      <c r="A796" s="8"/>
-      <c r="B796" s="8"/>
-      <c r="C796" s="8"/>
-      <c r="D796" s="8"/>
-      <c r="E796" s="8"/>
+      <c r="A796" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B796" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C796" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="D796" s="8">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E796" s="8">
+        <f t="shared" si="2"/>
+        <v>318</v>
+      </c>
       <c r="F796" s="8"/>
       <c r="G796" s="8"/>
       <c r="H796" s="8"/>
       <c r="I796" s="8"/>
-      <c r="J796" s="8"/>
+      <c r="J796" s="7">
+        <v>9.0</v>
+      </c>
       <c r="K796" s="8"/>
       <c r="L796" s="8"/>
       <c r="M796" s="8"/>
-      <c r="N796" s="8"/>
-      <c r="O796" s="8"/>
+      <c r="N796" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="O796" s="7">
+        <v>2.0</v>
+      </c>
       <c r="P796" s="8"/>
       <c r="Q796" s="8"/>
       <c r="R796" s="8"/>
@@ -38796,12 +40296,26 @@
       <c r="AD796" s="8"/>
     </row>
     <row r="797">
-      <c r="A797" s="6"/>
-      <c r="B797" s="6"/>
-      <c r="C797" s="6"/>
-      <c r="D797" s="6"/>
-      <c r="E797" s="6"/>
-      <c r="F797" s="6"/>
+      <c r="A797" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B797" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C797" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="D797" s="6">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="E797" s="6">
+        <f t="shared" si="2"/>
+        <v>844</v>
+      </c>
+      <c r="F797" s="5">
+        <v>22.0</v>
+      </c>
       <c r="G797" s="6"/>
       <c r="H797" s="6"/>
       <c r="I797" s="6"/>
@@ -38811,10 +40325,14 @@
       <c r="M797" s="6"/>
       <c r="N797" s="6"/>
       <c r="O797" s="6"/>
-      <c r="P797" s="6"/>
+      <c r="P797" s="5">
+        <v>9.0</v>
+      </c>
       <c r="Q797" s="6"/>
       <c r="R797" s="6"/>
-      <c r="S797" s="6"/>
+      <c r="S797" s="5">
+        <v>7.0</v>
+      </c>
       <c r="T797" s="6"/>
       <c r="U797" s="6"/>
       <c r="V797" s="6"/>
@@ -38828,12 +40346,26 @@
       <c r="AD797" s="6"/>
     </row>
     <row r="798">
-      <c r="A798" s="8"/>
-      <c r="B798" s="8"/>
-      <c r="C798" s="8"/>
-      <c r="D798" s="8"/>
-      <c r="E798" s="8"/>
-      <c r="F798" s="8"/>
+      <c r="A798" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B798" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C798" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="D798" s="8">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E798" s="8">
+        <f t="shared" si="2"/>
+        <v>466</v>
+      </c>
+      <c r="F798" s="7">
+        <v>8.0</v>
+      </c>
       <c r="G798" s="8"/>
       <c r="H798" s="8"/>
       <c r="I798" s="8"/>
@@ -38843,10 +40375,14 @@
       <c r="M798" s="8"/>
       <c r="N798" s="8"/>
       <c r="O798" s="8"/>
-      <c r="P798" s="8"/>
+      <c r="P798" s="7">
+        <v>3.0</v>
+      </c>
       <c r="Q798" s="8"/>
       <c r="R798" s="8"/>
-      <c r="S798" s="8"/>
+      <c r="S798" s="7">
+        <v>6.0</v>
+      </c>
       <c r="T798" s="8"/>
       <c r="U798" s="8"/>
       <c r="V798" s="8"/>
@@ -38860,24 +40396,42 @@
       <c r="AD798" s="8"/>
     </row>
     <row r="799">
-      <c r="A799" s="6"/>
-      <c r="B799" s="6"/>
-      <c r="C799" s="6"/>
-      <c r="D799" s="6"/>
-      <c r="E799" s="6"/>
+      <c r="A799" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B799" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C799" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D799" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E799" s="6">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
       <c r="F799" s="6"/>
       <c r="G799" s="6"/>
       <c r="H799" s="6"/>
       <c r="I799" s="6"/>
       <c r="J799" s="6"/>
-      <c r="K799" s="6"/>
+      <c r="K799" s="5">
+        <v>3.0</v>
+      </c>
       <c r="L799" s="6"/>
       <c r="M799" s="6"/>
       <c r="N799" s="6"/>
-      <c r="O799" s="6"/>
+      <c r="O799" s="5">
+        <v>1.0</v>
+      </c>
       <c r="P799" s="6"/>
       <c r="Q799" s="6"/>
-      <c r="R799" s="6"/>
+      <c r="R799" s="5">
+        <v>2.0</v>
+      </c>
       <c r="S799" s="6"/>
       <c r="T799" s="6"/>
       <c r="U799" s="6"/>
@@ -38892,20 +40446,38 @@
       <c r="AD799" s="6"/>
     </row>
     <row r="800">
-      <c r="A800" s="8"/>
-      <c r="B800" s="8"/>
-      <c r="C800" s="8"/>
-      <c r="D800" s="8"/>
-      <c r="E800" s="8"/>
+      <c r="A800" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B800" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C800" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D800" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E800" s="8">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
       <c r="F800" s="8"/>
       <c r="G800" s="8"/>
       <c r="H800" s="8"/>
       <c r="I800" s="8"/>
-      <c r="J800" s="8"/>
-      <c r="K800" s="8"/>
+      <c r="J800" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K800" s="7">
+        <v>3.0</v>
+      </c>
       <c r="L800" s="8"/>
       <c r="M800" s="8"/>
-      <c r="N800" s="8"/>
+      <c r="N800" s="7">
+        <v>3.0</v>
+      </c>
       <c r="O800" s="8"/>
       <c r="P800" s="8"/>
       <c r="Q800" s="8"/>
@@ -38924,17 +40496,33 @@
       <c r="AD800" s="8"/>
     </row>
     <row r="801">
-      <c r="A801" s="6"/>
-      <c r="B801" s="6"/>
-      <c r="C801" s="6"/>
-      <c r="D801" s="6"/>
-      <c r="E801" s="6"/>
+      <c r="A801" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B801" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C801" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D801" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E801" s="6">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
       <c r="F801" s="6"/>
       <c r="G801" s="6"/>
-      <c r="H801" s="6"/>
+      <c r="H801" s="5">
+        <v>3.0</v>
+      </c>
       <c r="I801" s="6"/>
       <c r="J801" s="6"/>
-      <c r="K801" s="6"/>
+      <c r="K801" s="5">
+        <v>2.0</v>
+      </c>
       <c r="L801" s="6"/>
       <c r="M801" s="6"/>
       <c r="N801" s="6"/>
@@ -38942,7 +40530,9 @@
       <c r="P801" s="6"/>
       <c r="Q801" s="6"/>
       <c r="R801" s="6"/>
-      <c r="S801" s="6"/>
+      <c r="S801" s="5">
+        <v>1.0</v>
+      </c>
       <c r="T801" s="6"/>
       <c r="U801" s="6"/>
       <c r="V801" s="6"/>
@@ -38956,16 +40546,30 @@
       <c r="AD801" s="6"/>
     </row>
     <row r="802">
-      <c r="A802" s="8"/>
-      <c r="B802" s="8"/>
-      <c r="C802" s="8"/>
-      <c r="D802" s="8"/>
-      <c r="E802" s="8"/>
+      <c r="A802" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B802" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C802" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D802" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E802" s="8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="F802" s="8"/>
       <c r="G802" s="8"/>
       <c r="H802" s="8"/>
       <c r="I802" s="8"/>
-      <c r="J802" s="8"/>
+      <c r="J802" s="7">
+        <v>3.0</v>
+      </c>
       <c r="K802" s="8"/>
       <c r="L802" s="8"/>
       <c r="M802" s="8"/>
@@ -38988,15 +40592,29 @@
       <c r="AD802" s="8"/>
     </row>
     <row r="803">
-      <c r="A803" s="6"/>
-      <c r="B803" s="6"/>
-      <c r="C803" s="6"/>
-      <c r="D803" s="6"/>
-      <c r="E803" s="6"/>
+      <c r="A803" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B803" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C803" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D803" s="6">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E803" s="6">
+        <f t="shared" si="2"/>
+        <v>418</v>
+      </c>
       <c r="F803" s="6"/>
       <c r="G803" s="6"/>
       <c r="H803" s="6"/>
-      <c r="I803" s="6"/>
+      <c r="I803" s="5">
+        <v>9.0</v>
+      </c>
       <c r="J803" s="6"/>
       <c r="K803" s="6"/>
       <c r="L803" s="6"/>
@@ -39004,7 +40622,9 @@
       <c r="N803" s="6"/>
       <c r="O803" s="6"/>
       <c r="P803" s="6"/>
-      <c r="Q803" s="6"/>
+      <c r="Q803" s="5">
+        <v>8.0</v>
+      </c>
       <c r="R803" s="6"/>
       <c r="S803" s="6"/>
       <c r="T803" s="6"/>
@@ -39020,15 +40640,31 @@
       <c r="AD803" s="6"/>
     </row>
     <row r="804">
-      <c r="A804" s="8"/>
-      <c r="B804" s="8"/>
-      <c r="C804" s="8"/>
-      <c r="D804" s="8"/>
-      <c r="E804" s="8"/>
+      <c r="A804" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B804" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C804" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="D804" s="8">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="E804" s="8">
+        <f t="shared" si="2"/>
+        <v>234</v>
+      </c>
       <c r="F804" s="8"/>
-      <c r="G804" s="8"/>
+      <c r="G804" s="7">
+        <v>13.0</v>
+      </c>
       <c r="H804" s="8"/>
-      <c r="I804" s="8"/>
+      <c r="I804" s="7">
+        <v>4.0</v>
+      </c>
       <c r="J804" s="8"/>
       <c r="K804" s="8"/>
       <c r="L804" s="8"/>
@@ -39036,7 +40672,9 @@
       <c r="N804" s="8"/>
       <c r="O804" s="8"/>
       <c r="P804" s="8"/>
-      <c r="Q804" s="8"/>
+      <c r="Q804" s="7">
+        <v>4.0</v>
+      </c>
       <c r="R804" s="8"/>
       <c r="S804" s="8"/>
       <c r="T804" s="8"/>
@@ -39052,19 +40690,37 @@
       <c r="AD804" s="8"/>
     </row>
     <row r="805">
-      <c r="A805" s="6"/>
-      <c r="B805" s="6"/>
-      <c r="C805" s="6"/>
-      <c r="D805" s="6"/>
-      <c r="E805" s="6"/>
+      <c r="A805" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B805" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C805" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="D805" s="6">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="E805" s="6">
+        <f t="shared" si="2"/>
+        <v>686</v>
+      </c>
       <c r="F805" s="6"/>
-      <c r="G805" s="6"/>
+      <c r="G805" s="5">
+        <v>4.0</v>
+      </c>
       <c r="H805" s="6"/>
       <c r="I805" s="6"/>
       <c r="J805" s="6"/>
-      <c r="K805" s="6"/>
+      <c r="K805" s="5">
+        <v>14.0</v>
+      </c>
       <c r="L805" s="6"/>
-      <c r="M805" s="6"/>
+      <c r="M805" s="5">
+        <v>13.0</v>
+      </c>
       <c r="N805" s="6"/>
       <c r="O805" s="6"/>
       <c r="P805" s="6"/>
@@ -39084,14 +40740,30 @@
       <c r="AD805" s="6"/>
     </row>
     <row r="806">
-      <c r="A806" s="8"/>
-      <c r="B806" s="8"/>
-      <c r="C806" s="8"/>
-      <c r="D806" s="8"/>
-      <c r="E806" s="8"/>
+      <c r="A806" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B806" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C806" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="D806" s="8">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="E806" s="8">
+        <f t="shared" si="2"/>
+        <v>538</v>
+      </c>
       <c r="F806" s="8"/>
-      <c r="G806" s="8"/>
-      <c r="H806" s="8"/>
+      <c r="G806" s="7">
+        <v>11.0</v>
+      </c>
+      <c r="H806" s="7">
+        <v>8.0</v>
+      </c>
       <c r="I806" s="8"/>
       <c r="J806" s="8"/>
       <c r="K806" s="8"/>
@@ -39100,7 +40772,9 @@
       <c r="N806" s="8"/>
       <c r="O806" s="8"/>
       <c r="P806" s="8"/>
-      <c r="Q806" s="8"/>
+      <c r="Q806" s="7">
+        <v>10.0</v>
+      </c>
       <c r="R806" s="8"/>
       <c r="S806" s="8"/>
       <c r="T806" s="8"/>
@@ -39116,15 +40790,31 @@
       <c r="AD806" s="8"/>
     </row>
     <row r="807">
-      <c r="A807" s="6"/>
-      <c r="B807" s="6"/>
-      <c r="C807" s="6"/>
-      <c r="D807" s="6"/>
-      <c r="E807" s="6"/>
+      <c r="A807" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B807" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C807" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="D807" s="6">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="E807" s="6">
+        <f t="shared" si="2"/>
+        <v>814</v>
+      </c>
       <c r="F807" s="6"/>
-      <c r="G807" s="6"/>
+      <c r="G807" s="5">
+        <v>27.0</v>
+      </c>
       <c r="H807" s="6"/>
-      <c r="I807" s="6"/>
+      <c r="I807" s="5">
+        <v>5.0</v>
+      </c>
       <c r="J807" s="6"/>
       <c r="K807" s="6"/>
       <c r="L807" s="6"/>
@@ -39132,7 +40822,9 @@
       <c r="N807" s="6"/>
       <c r="O807" s="6"/>
       <c r="P807" s="6"/>
-      <c r="Q807" s="6"/>
+      <c r="Q807" s="5">
+        <v>15.0</v>
+      </c>
       <c r="R807" s="6"/>
       <c r="S807" s="6"/>
       <c r="T807" s="6"/>
@@ -39148,19 +40840,37 @@
       <c r="AD807" s="6"/>
     </row>
     <row r="808">
-      <c r="A808" s="8"/>
-      <c r="B808" s="8"/>
-      <c r="C808" s="8"/>
-      <c r="D808" s="8"/>
-      <c r="E808" s="8"/>
+      <c r="A808" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B808" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C808" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="D808" s="8">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="E808" s="8">
+        <f t="shared" si="2"/>
+        <v>802</v>
+      </c>
       <c r="F808" s="8"/>
       <c r="G808" s="8"/>
       <c r="H808" s="8"/>
-      <c r="I808" s="8"/>
-      <c r="J808" s="8"/>
+      <c r="I808" s="7">
+        <v>16.0</v>
+      </c>
+      <c r="J808" s="7">
+        <v>10.0</v>
+      </c>
       <c r="K808" s="8"/>
       <c r="L808" s="8"/>
-      <c r="M808" s="8"/>
+      <c r="M808" s="7">
+        <v>15.0</v>
+      </c>
       <c r="N808" s="8"/>
       <c r="O808" s="8"/>
       <c r="P808" s="8"/>
@@ -39180,23 +40890,41 @@
       <c r="AD808" s="8"/>
     </row>
     <row r="809">
-      <c r="A809" s="6"/>
-      <c r="B809" s="6"/>
-      <c r="C809" s="6"/>
-      <c r="D809" s="6"/>
-      <c r="E809" s="6"/>
+      <c r="A809" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B809" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C809" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="D809" s="6">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="E809" s="6">
+        <f t="shared" si="2"/>
+        <v>1062</v>
+      </c>
       <c r="F809" s="6"/>
-      <c r="G809" s="6"/>
+      <c r="G809" s="5">
+        <v>18.0</v>
+      </c>
       <c r="H809" s="6"/>
       <c r="I809" s="6"/>
-      <c r="J809" s="6"/>
+      <c r="J809" s="5">
+        <v>13.0</v>
+      </c>
       <c r="K809" s="6"/>
       <c r="L809" s="6"/>
       <c r="M809" s="6"/>
       <c r="N809" s="6"/>
       <c r="O809" s="6"/>
       <c r="P809" s="6"/>
-      <c r="Q809" s="6"/>
+      <c r="Q809" s="5">
+        <v>20.0</v>
+      </c>
       <c r="R809" s="6"/>
       <c r="S809" s="6"/>
       <c r="T809" s="6"/>
@@ -39212,19 +40940,37 @@
       <c r="AD809" s="6"/>
     </row>
     <row r="810">
-      <c r="A810" s="8"/>
-      <c r="B810" s="8"/>
-      <c r="C810" s="8"/>
-      <c r="D810" s="8"/>
-      <c r="E810" s="8"/>
+      <c r="A810" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B810" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C810" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="D810" s="8">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="E810" s="8">
+        <f t="shared" si="2"/>
+        <v>1282</v>
+      </c>
       <c r="F810" s="8"/>
-      <c r="G810" s="8"/>
+      <c r="G810" s="7">
+        <v>9.0</v>
+      </c>
       <c r="H810" s="8"/>
-      <c r="I810" s="8"/>
+      <c r="I810" s="7">
+        <v>32.0</v>
+      </c>
       <c r="J810" s="8"/>
       <c r="K810" s="8"/>
       <c r="L810" s="8"/>
-      <c r="M810" s="8"/>
+      <c r="M810" s="7">
+        <v>24.0</v>
+      </c>
       <c r="N810" s="8"/>
       <c r="O810" s="8"/>
       <c r="P810" s="8"/>
@@ -39244,23 +40990,41 @@
       <c r="AD810" s="8"/>
     </row>
     <row r="811">
-      <c r="A811" s="6"/>
-      <c r="B811" s="6"/>
-      <c r="C811" s="6"/>
-      <c r="D811" s="6"/>
-      <c r="E811" s="6"/>
+      <c r="A811" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B811" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C811" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="D811" s="6">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="E811" s="6">
+        <f t="shared" si="2"/>
+        <v>1028</v>
+      </c>
       <c r="F811" s="6"/>
       <c r="G811" s="6"/>
       <c r="H811" s="6"/>
-      <c r="I811" s="6"/>
+      <c r="I811" s="5">
+        <v>9.0</v>
+      </c>
       <c r="J811" s="6"/>
       <c r="K811" s="6"/>
-      <c r="L811" s="6"/>
+      <c r="L811" s="5">
+        <v>30.0</v>
+      </c>
       <c r="M811" s="6"/>
       <c r="N811" s="6"/>
       <c r="O811" s="6"/>
       <c r="P811" s="6"/>
-      <c r="Q811" s="6"/>
+      <c r="Q811" s="5">
+        <v>19.0</v>
+      </c>
       <c r="R811" s="6"/>
       <c r="S811" s="6"/>
       <c r="T811" s="6"/>
@@ -39276,19 +41040,37 @@
       <c r="AD811" s="6"/>
     </row>
     <row r="812">
-      <c r="A812" s="8"/>
-      <c r="B812" s="8"/>
-      <c r="C812" s="8"/>
-      <c r="D812" s="8"/>
-      <c r="E812" s="8"/>
+      <c r="A812" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B812" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C812" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="D812" s="8">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="E812" s="8">
+        <f t="shared" si="2"/>
+        <v>1262</v>
+      </c>
       <c r="F812" s="8"/>
-      <c r="G812" s="8"/>
+      <c r="G812" s="7">
+        <v>7.0</v>
+      </c>
       <c r="H812" s="8"/>
       <c r="I812" s="8"/>
       <c r="J812" s="8"/>
       <c r="K812" s="8"/>
-      <c r="L812" s="8"/>
-      <c r="M812" s="8"/>
+      <c r="L812" s="7">
+        <v>24.0</v>
+      </c>
+      <c r="M812" s="7">
+        <v>24.0</v>
+      </c>
       <c r="N812" s="8"/>
       <c r="O812" s="8"/>
       <c r="P812" s="8"/>
@@ -39308,14 +41090,30 @@
       <c r="AD812" s="8"/>
     </row>
     <row r="813">
-      <c r="A813" s="6"/>
-      <c r="B813" s="6"/>
-      <c r="C813" s="6"/>
-      <c r="D813" s="6"/>
-      <c r="E813" s="6"/>
+      <c r="A813" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B813" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C813" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="D813" s="6">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="E813" s="6">
+        <f t="shared" si="2"/>
+        <v>562</v>
+      </c>
       <c r="F813" s="6"/>
-      <c r="G813" s="6"/>
-      <c r="H813" s="6"/>
+      <c r="G813" s="5">
+        <v>19.0</v>
+      </c>
+      <c r="H813" s="5">
+        <v>12.0</v>
+      </c>
       <c r="I813" s="6"/>
       <c r="J813" s="6"/>
       <c r="K813" s="6"/>
@@ -39324,7 +41122,9 @@
       <c r="N813" s="6"/>
       <c r="O813" s="6"/>
       <c r="P813" s="6"/>
-      <c r="Q813" s="6"/>
+      <c r="Q813" s="5">
+        <v>10.0</v>
+      </c>
       <c r="R813" s="6"/>
       <c r="S813" s="6"/>
       <c r="T813" s="6"/>
@@ -39340,23 +41140,41 @@
       <c r="AD813" s="6"/>
     </row>
     <row r="814">
-      <c r="A814" s="8"/>
-      <c r="B814" s="8"/>
-      <c r="C814" s="8"/>
-      <c r="D814" s="8"/>
-      <c r="E814" s="8"/>
+      <c r="A814" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B814" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C814" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="D814" s="8">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="E814" s="8">
+        <f t="shared" si="2"/>
+        <v>910</v>
+      </c>
       <c r="F814" s="8"/>
       <c r="G814" s="8"/>
       <c r="H814" s="8"/>
-      <c r="I814" s="8"/>
-      <c r="J814" s="8"/>
+      <c r="I814" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="J814" s="7">
+        <v>23.0</v>
+      </c>
       <c r="K814" s="8"/>
       <c r="L814" s="8"/>
       <c r="M814" s="8"/>
       <c r="N814" s="8"/>
       <c r="O814" s="8"/>
       <c r="P814" s="8"/>
-      <c r="Q814" s="8"/>
+      <c r="Q814" s="7">
+        <v>17.0</v>
+      </c>
       <c r="R814" s="8"/>
       <c r="S814" s="8"/>
       <c r="T814" s="8"/>
@@ -39372,19 +41190,37 @@
       <c r="AD814" s="8"/>
     </row>
     <row r="815">
-      <c r="A815" s="6"/>
-      <c r="B815" s="6"/>
-      <c r="C815" s="6"/>
-      <c r="D815" s="6"/>
-      <c r="E815" s="6"/>
+      <c r="A815" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B815" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C815" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="D815" s="6">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="E815" s="6">
+        <f t="shared" si="2"/>
+        <v>744</v>
+      </c>
       <c r="F815" s="6"/>
-      <c r="G815" s="6"/>
+      <c r="G815" s="5">
+        <v>5.0</v>
+      </c>
       <c r="H815" s="6"/>
-      <c r="I815" s="6"/>
+      <c r="I815" s="5">
+        <v>17.0</v>
+      </c>
       <c r="J815" s="6"/>
       <c r="K815" s="6"/>
       <c r="L815" s="6"/>
-      <c r="M815" s="6"/>
+      <c r="M815" s="5">
+        <v>14.0</v>
+      </c>
       <c r="N815" s="6"/>
       <c r="O815" s="6"/>
       <c r="P815" s="6"/>
@@ -39404,19 +41240,37 @@
       <c r="AD815" s="6"/>
     </row>
     <row r="816">
-      <c r="A816" s="8"/>
-      <c r="B816" s="8"/>
-      <c r="C816" s="8"/>
-      <c r="D816" s="8"/>
-      <c r="E816" s="8"/>
+      <c r="A816" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B816" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C816" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="D816" s="8">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="E816" s="8">
+        <f t="shared" si="2"/>
+        <v>594</v>
+      </c>
       <c r="F816" s="8"/>
       <c r="G816" s="8"/>
       <c r="H816" s="8"/>
       <c r="I816" s="8"/>
-      <c r="J816" s="8"/>
+      <c r="J816" s="7">
+        <v>8.0</v>
+      </c>
       <c r="K816" s="8"/>
-      <c r="L816" s="8"/>
-      <c r="M816" s="8"/>
+      <c r="L816" s="7">
+        <v>14.0</v>
+      </c>
+      <c r="M816" s="7">
+        <v>11.0</v>
+      </c>
       <c r="N816" s="8"/>
       <c r="O816" s="8"/>
       <c r="P816" s="8"/>
@@ -39439,8 +41293,14 @@
       <c r="A817" s="6"/>
       <c r="B817" s="6"/>
       <c r="C817" s="6"/>
-      <c r="D817" s="6"/>
-      <c r="E817" s="6"/>
+      <c r="D817" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E817" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F817" s="6"/>
       <c r="G817" s="6"/>
       <c r="H817" s="6"/>
@@ -39471,8 +41331,14 @@
       <c r="A818" s="8"/>
       <c r="B818" s="8"/>
       <c r="C818" s="8"/>
-      <c r="D818" s="8"/>
-      <c r="E818" s="8"/>
+      <c r="D818" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E818" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F818" s="8"/>
       <c r="G818" s="8"/>
       <c r="H818" s="8"/>
@@ -39503,8 +41369,14 @@
       <c r="A819" s="6"/>
       <c r="B819" s="6"/>
       <c r="C819" s="6"/>
-      <c r="D819" s="6"/>
-      <c r="E819" s="6"/>
+      <c r="D819" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E819" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F819" s="6"/>
       <c r="G819" s="6"/>
       <c r="H819" s="6"/>
@@ -39535,8 +41407,14 @@
       <c r="A820" s="8"/>
       <c r="B820" s="8"/>
       <c r="C820" s="8"/>
-      <c r="D820" s="8"/>
-      <c r="E820" s="8"/>
+      <c r="D820" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E820" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F820" s="8"/>
       <c r="G820" s="8"/>
       <c r="H820" s="8"/>
@@ -39567,8 +41445,14 @@
       <c r="A821" s="6"/>
       <c r="B821" s="6"/>
       <c r="C821" s="6"/>
-      <c r="D821" s="6"/>
-      <c r="E821" s="6"/>
+      <c r="D821" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E821" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F821" s="6"/>
       <c r="G821" s="6"/>
       <c r="H821" s="6"/>
@@ -39599,8 +41483,14 @@
       <c r="A822" s="8"/>
       <c r="B822" s="8"/>
       <c r="C822" s="8"/>
-      <c r="D822" s="8"/>
-      <c r="E822" s="8"/>
+      <c r="D822" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E822" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F822" s="8"/>
       <c r="G822" s="8"/>
       <c r="H822" s="8"/>
@@ -39631,8 +41521,14 @@
       <c r="A823" s="6"/>
       <c r="B823" s="6"/>
       <c r="C823" s="6"/>
-      <c r="D823" s="6"/>
-      <c r="E823" s="6"/>
+      <c r="D823" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E823" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F823" s="6"/>
       <c r="G823" s="6"/>
       <c r="H823" s="6"/>
@@ -39663,8 +41559,14 @@
       <c r="A824" s="8"/>
       <c r="B824" s="8"/>
       <c r="C824" s="8"/>
-      <c r="D824" s="8"/>
-      <c r="E824" s="8"/>
+      <c r="D824" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E824" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F824" s="8"/>
       <c r="G824" s="8"/>
       <c r="H824" s="8"/>
@@ -39695,8 +41597,14 @@
       <c r="A825" s="6"/>
       <c r="B825" s="6"/>
       <c r="C825" s="6"/>
-      <c r="D825" s="6"/>
-      <c r="E825" s="6"/>
+      <c r="D825" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E825" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F825" s="6"/>
       <c r="G825" s="6"/>
       <c r="H825" s="6"/>
@@ -39727,8 +41635,14 @@
       <c r="A826" s="8"/>
       <c r="B826" s="8"/>
       <c r="C826" s="8"/>
-      <c r="D826" s="8"/>
-      <c r="E826" s="8"/>
+      <c r="D826" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E826" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F826" s="8"/>
       <c r="G826" s="8"/>
       <c r="H826" s="8"/>
@@ -39759,8 +41673,14 @@
       <c r="A827" s="6"/>
       <c r="B827" s="6"/>
       <c r="C827" s="6"/>
-      <c r="D827" s="6"/>
-      <c r="E827" s="6"/>
+      <c r="D827" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E827" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F827" s="6"/>
       <c r="G827" s="6"/>
       <c r="H827" s="6"/>
@@ -39791,8 +41711,14 @@
       <c r="A828" s="8"/>
       <c r="B828" s="8"/>
       <c r="C828" s="8"/>
-      <c r="D828" s="8"/>
-      <c r="E828" s="8"/>
+      <c r="D828" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E828" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F828" s="8"/>
       <c r="G828" s="8"/>
       <c r="H828" s="8"/>
@@ -39823,8 +41749,14 @@
       <c r="A829" s="6"/>
       <c r="B829" s="6"/>
       <c r="C829" s="6"/>
-      <c r="D829" s="6"/>
-      <c r="E829" s="6"/>
+      <c r="D829" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E829" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F829" s="6"/>
       <c r="G829" s="6"/>
       <c r="H829" s="6"/>
@@ -39855,8 +41787,14 @@
       <c r="A830" s="8"/>
       <c r="B830" s="8"/>
       <c r="C830" s="8"/>
-      <c r="D830" s="8"/>
-      <c r="E830" s="8"/>
+      <c r="D830" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E830" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F830" s="8"/>
       <c r="G830" s="8"/>
       <c r="H830" s="8"/>
@@ -39887,8 +41825,14 @@
       <c r="A831" s="6"/>
       <c r="B831" s="6"/>
       <c r="C831" s="6"/>
-      <c r="D831" s="6"/>
-      <c r="E831" s="6"/>
+      <c r="D831" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E831" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F831" s="6"/>
       <c r="G831" s="6"/>
       <c r="H831" s="6"/>
@@ -39919,8 +41863,14 @@
       <c r="A832" s="8"/>
       <c r="B832" s="8"/>
       <c r="C832" s="8"/>
-      <c r="D832" s="8"/>
-      <c r="E832" s="8"/>
+      <c r="D832" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E832" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F832" s="8"/>
       <c r="G832" s="8"/>
       <c r="H832" s="8"/>
@@ -39951,8 +41901,14 @@
       <c r="A833" s="6"/>
       <c r="B833" s="6"/>
       <c r="C833" s="6"/>
-      <c r="D833" s="6"/>
-      <c r="E833" s="6"/>
+      <c r="D833" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E833" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F833" s="6"/>
       <c r="G833" s="6"/>
       <c r="H833" s="6"/>
@@ -39983,8 +41939,14 @@
       <c r="A834" s="8"/>
       <c r="B834" s="8"/>
       <c r="C834" s="8"/>
-      <c r="D834" s="8"/>
-      <c r="E834" s="8"/>
+      <c r="D834" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E834" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F834" s="8"/>
       <c r="G834" s="8"/>
       <c r="H834" s="8"/>
@@ -40015,8 +41977,14 @@
       <c r="A835" s="6"/>
       <c r="B835" s="6"/>
       <c r="C835" s="6"/>
-      <c r="D835" s="6"/>
-      <c r="E835" s="6"/>
+      <c r="D835" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E835" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F835" s="6"/>
       <c r="G835" s="6"/>
       <c r="H835" s="6"/>
@@ -40047,8 +42015,14 @@
       <c r="A836" s="8"/>
       <c r="B836" s="8"/>
       <c r="C836" s="8"/>
-      <c r="D836" s="8"/>
-      <c r="E836" s="8"/>
+      <c r="D836" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E836" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F836" s="8"/>
       <c r="G836" s="8"/>
       <c r="H836" s="8"/>
@@ -40079,8 +42053,14 @@
       <c r="A837" s="6"/>
       <c r="B837" s="6"/>
       <c r="C837" s="6"/>
-      <c r="D837" s="6"/>
-      <c r="E837" s="6"/>
+      <c r="D837" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E837" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F837" s="6"/>
       <c r="G837" s="6"/>
       <c r="H837" s="6"/>
@@ -40111,8 +42091,14 @@
       <c r="A838" s="8"/>
       <c r="B838" s="8"/>
       <c r="C838" s="8"/>
-      <c r="D838" s="8"/>
-      <c r="E838" s="8"/>
+      <c r="D838" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E838" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F838" s="8"/>
       <c r="G838" s="8"/>
       <c r="H838" s="8"/>
@@ -40143,8 +42129,14 @@
       <c r="A839" s="6"/>
       <c r="B839" s="6"/>
       <c r="C839" s="6"/>
-      <c r="D839" s="6"/>
-      <c r="E839" s="6"/>
+      <c r="D839" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E839" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F839" s="6"/>
       <c r="G839" s="6"/>
       <c r="H839" s="6"/>
@@ -40175,8 +42167,14 @@
       <c r="A840" s="8"/>
       <c r="B840" s="8"/>
       <c r="C840" s="8"/>
-      <c r="D840" s="8"/>
-      <c r="E840" s="8"/>
+      <c r="D840" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E840" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F840" s="8"/>
       <c r="G840" s="8"/>
       <c r="H840" s="8"/>
@@ -40207,8 +42205,14 @@
       <c r="A841" s="6"/>
       <c r="B841" s="6"/>
       <c r="C841" s="6"/>
-      <c r="D841" s="6"/>
-      <c r="E841" s="6"/>
+      <c r="D841" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E841" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F841" s="6"/>
       <c r="G841" s="6"/>
       <c r="H841" s="6"/>
@@ -40239,8 +42243,14 @@
       <c r="A842" s="8"/>
       <c r="B842" s="8"/>
       <c r="C842" s="8"/>
-      <c r="D842" s="8"/>
-      <c r="E842" s="8"/>
+      <c r="D842" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E842" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F842" s="8"/>
       <c r="G842" s="8"/>
       <c r="H842" s="8"/>
@@ -40271,8 +42281,14 @@
       <c r="A843" s="6"/>
       <c r="B843" s="6"/>
       <c r="C843" s="6"/>
-      <c r="D843" s="6"/>
-      <c r="E843" s="6"/>
+      <c r="D843" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E843" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F843" s="6"/>
       <c r="G843" s="6"/>
       <c r="H843" s="6"/>
@@ -40303,8 +42319,14 @@
       <c r="A844" s="8"/>
       <c r="B844" s="8"/>
       <c r="C844" s="8"/>
-      <c r="D844" s="8"/>
-      <c r="E844" s="8"/>
+      <c r="D844" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E844" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F844" s="8"/>
       <c r="G844" s="8"/>
       <c r="H844" s="8"/>
@@ -40335,8 +42357,14 @@
       <c r="A845" s="6"/>
       <c r="B845" s="6"/>
       <c r="C845" s="6"/>
-      <c r="D845" s="6"/>
-      <c r="E845" s="6"/>
+      <c r="D845" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E845" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F845" s="6"/>
       <c r="G845" s="6"/>
       <c r="H845" s="6"/>
@@ -40367,8 +42395,14 @@
       <c r="A846" s="8"/>
       <c r="B846" s="8"/>
       <c r="C846" s="8"/>
-      <c r="D846" s="8"/>
-      <c r="E846" s="8"/>
+      <c r="D846" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E846" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F846" s="8"/>
       <c r="G846" s="8"/>
       <c r="H846" s="8"/>
@@ -40399,8 +42433,14 @@
       <c r="A847" s="6"/>
       <c r="B847" s="6"/>
       <c r="C847" s="6"/>
-      <c r="D847" s="6"/>
-      <c r="E847" s="6"/>
+      <c r="D847" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E847" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F847" s="6"/>
       <c r="G847" s="6"/>
       <c r="H847" s="6"/>
@@ -40431,8 +42471,14 @@
       <c r="A848" s="8"/>
       <c r="B848" s="8"/>
       <c r="C848" s="8"/>
-      <c r="D848" s="8"/>
-      <c r="E848" s="8"/>
+      <c r="D848" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E848" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F848" s="8"/>
       <c r="G848" s="8"/>
       <c r="H848" s="8"/>
@@ -40463,8 +42509,14 @@
       <c r="A849" s="6"/>
       <c r="B849" s="6"/>
       <c r="C849" s="6"/>
-      <c r="D849" s="6"/>
-      <c r="E849" s="6"/>
+      <c r="D849" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E849" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F849" s="6"/>
       <c r="G849" s="6"/>
       <c r="H849" s="6"/>
@@ -40495,8 +42547,14 @@
       <c r="A850" s="8"/>
       <c r="B850" s="8"/>
       <c r="C850" s="8"/>
-      <c r="D850" s="8"/>
-      <c r="E850" s="8"/>
+      <c r="D850" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E850" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F850" s="8"/>
       <c r="G850" s="8"/>
       <c r="H850" s="8"/>
@@ -40527,8 +42585,14 @@
       <c r="A851" s="6"/>
       <c r="B851" s="6"/>
       <c r="C851" s="6"/>
-      <c r="D851" s="6"/>
-      <c r="E851" s="6"/>
+      <c r="D851" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E851" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F851" s="6"/>
       <c r="G851" s="6"/>
       <c r="H851" s="6"/>
@@ -40559,8 +42623,14 @@
       <c r="A852" s="8"/>
       <c r="B852" s="8"/>
       <c r="C852" s="8"/>
-      <c r="D852" s="8"/>
-      <c r="E852" s="8"/>
+      <c r="D852" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E852" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F852" s="8"/>
       <c r="G852" s="8"/>
       <c r="H852" s="8"/>
@@ -40591,8 +42661,14 @@
       <c r="A853" s="6"/>
       <c r="B853" s="6"/>
       <c r="C853" s="6"/>
-      <c r="D853" s="6"/>
-      <c r="E853" s="6"/>
+      <c r="D853" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E853" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F853" s="6"/>
       <c r="G853" s="6"/>
       <c r="H853" s="6"/>
@@ -40623,8 +42699,14 @@
       <c r="A854" s="8"/>
       <c r="B854" s="8"/>
       <c r="C854" s="8"/>
-      <c r="D854" s="8"/>
-      <c r="E854" s="8"/>
+      <c r="D854" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E854" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F854" s="8"/>
       <c r="G854" s="8"/>
       <c r="H854" s="8"/>
@@ -40655,8 +42737,14 @@
       <c r="A855" s="6"/>
       <c r="B855" s="6"/>
       <c r="C855" s="6"/>
-      <c r="D855" s="6"/>
-      <c r="E855" s="6"/>
+      <c r="D855" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E855" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F855" s="6"/>
       <c r="G855" s="6"/>
       <c r="H855" s="6"/>
@@ -40687,8 +42775,14 @@
       <c r="A856" s="8"/>
       <c r="B856" s="8"/>
       <c r="C856" s="8"/>
-      <c r="D856" s="8"/>
-      <c r="E856" s="8"/>
+      <c r="D856" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E856" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F856" s="8"/>
       <c r="G856" s="8"/>
       <c r="H856" s="8"/>
@@ -40719,8 +42813,14 @@
       <c r="A857" s="6"/>
       <c r="B857" s="6"/>
       <c r="C857" s="6"/>
-      <c r="D857" s="6"/>
-      <c r="E857" s="6"/>
+      <c r="D857" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E857" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F857" s="6"/>
       <c r="G857" s="6"/>
       <c r="H857" s="6"/>
@@ -40751,8 +42851,14 @@
       <c r="A858" s="8"/>
       <c r="B858" s="8"/>
       <c r="C858" s="8"/>
-      <c r="D858" s="8"/>
-      <c r="E858" s="8"/>
+      <c r="D858" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E858" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F858" s="8"/>
       <c r="G858" s="8"/>
       <c r="H858" s="8"/>
@@ -40783,8 +42889,14 @@
       <c r="A859" s="6"/>
       <c r="B859" s="6"/>
       <c r="C859" s="6"/>
-      <c r="D859" s="6"/>
-      <c r="E859" s="6"/>
+      <c r="D859" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E859" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F859" s="6"/>
       <c r="G859" s="6"/>
       <c r="H859" s="6"/>
@@ -40815,8 +42927,14 @@
       <c r="A860" s="8"/>
       <c r="B860" s="8"/>
       <c r="C860" s="8"/>
-      <c r="D860" s="8"/>
-      <c r="E860" s="8"/>
+      <c r="D860" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E860" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F860" s="8"/>
       <c r="G860" s="8"/>
       <c r="H860" s="8"/>
@@ -40847,8 +42965,14 @@
       <c r="A861" s="6"/>
       <c r="B861" s="6"/>
       <c r="C861" s="6"/>
-      <c r="D861" s="6"/>
-      <c r="E861" s="6"/>
+      <c r="D861" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E861" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F861" s="6"/>
       <c r="G861" s="6"/>
       <c r="H861" s="6"/>
@@ -40879,8 +43003,14 @@
       <c r="A862" s="8"/>
       <c r="B862" s="8"/>
       <c r="C862" s="8"/>
-      <c r="D862" s="8"/>
-      <c r="E862" s="8"/>
+      <c r="D862" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E862" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F862" s="8"/>
       <c r="G862" s="8"/>
       <c r="H862" s="8"/>
@@ -40911,8 +43041,14 @@
       <c r="A863" s="6"/>
       <c r="B863" s="6"/>
       <c r="C863" s="6"/>
-      <c r="D863" s="6"/>
-      <c r="E863" s="6"/>
+      <c r="D863" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E863" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F863" s="6"/>
       <c r="G863" s="6"/>
       <c r="H863" s="6"/>
@@ -40943,8 +43079,14 @@
       <c r="A864" s="8"/>
       <c r="B864" s="8"/>
       <c r="C864" s="8"/>
-      <c r="D864" s="8"/>
-      <c r="E864" s="8"/>
+      <c r="D864" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E864" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F864" s="8"/>
       <c r="G864" s="8"/>
       <c r="H864" s="8"/>
@@ -40975,8 +43117,14 @@
       <c r="A865" s="6"/>
       <c r="B865" s="6"/>
       <c r="C865" s="6"/>
-      <c r="D865" s="6"/>
-      <c r="E865" s="6"/>
+      <c r="D865" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E865" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F865" s="6"/>
       <c r="G865" s="6"/>
       <c r="H865" s="6"/>
@@ -41007,8 +43155,14 @@
       <c r="A866" s="8"/>
       <c r="B866" s="8"/>
       <c r="C866" s="8"/>
-      <c r="D866" s="8"/>
-      <c r="E866" s="8"/>
+      <c r="D866" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E866" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F866" s="8"/>
       <c r="G866" s="8"/>
       <c r="H866" s="8"/>
@@ -41039,8 +43193,14 @@
       <c r="A867" s="6"/>
       <c r="B867" s="6"/>
       <c r="C867" s="6"/>
-      <c r="D867" s="6"/>
-      <c r="E867" s="6"/>
+      <c r="D867" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E867" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F867" s="6"/>
       <c r="G867" s="6"/>
       <c r="H867" s="6"/>
@@ -41071,8 +43231,14 @@
       <c r="A868" s="8"/>
       <c r="B868" s="8"/>
       <c r="C868" s="8"/>
-      <c r="D868" s="8"/>
-      <c r="E868" s="8"/>
+      <c r="D868" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E868" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F868" s="8"/>
       <c r="G868" s="8"/>
       <c r="H868" s="8"/>
@@ -41103,8 +43269,14 @@
       <c r="A869" s="6"/>
       <c r="B869" s="6"/>
       <c r="C869" s="6"/>
-      <c r="D869" s="6"/>
-      <c r="E869" s="6"/>
+      <c r="D869" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E869" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F869" s="6"/>
       <c r="G869" s="6"/>
       <c r="H869" s="6"/>
@@ -41135,8 +43307,14 @@
       <c r="A870" s="8"/>
       <c r="B870" s="8"/>
       <c r="C870" s="8"/>
-      <c r="D870" s="8"/>
-      <c r="E870" s="8"/>
+      <c r="D870" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E870" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F870" s="8"/>
       <c r="G870" s="8"/>
       <c r="H870" s="8"/>
@@ -41167,8 +43345,14 @@
       <c r="A871" s="6"/>
       <c r="B871" s="6"/>
       <c r="C871" s="6"/>
-      <c r="D871" s="6"/>
-      <c r="E871" s="6"/>
+      <c r="D871" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E871" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F871" s="6"/>
       <c r="G871" s="6"/>
       <c r="H871" s="6"/>
@@ -41199,8 +43383,14 @@
       <c r="A872" s="8"/>
       <c r="B872" s="8"/>
       <c r="C872" s="8"/>
-      <c r="D872" s="8"/>
-      <c r="E872" s="8"/>
+      <c r="D872" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E872" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F872" s="8"/>
       <c r="G872" s="8"/>
       <c r="H872" s="8"/>
@@ -41231,8 +43421,14 @@
       <c r="A873" s="6"/>
       <c r="B873" s="6"/>
       <c r="C873" s="6"/>
-      <c r="D873" s="6"/>
-      <c r="E873" s="6"/>
+      <c r="D873" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E873" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F873" s="6"/>
       <c r="G873" s="6"/>
       <c r="H873" s="6"/>
@@ -41263,8 +43459,14 @@
       <c r="A874" s="8"/>
       <c r="B874" s="8"/>
       <c r="C874" s="8"/>
-      <c r="D874" s="8"/>
-      <c r="E874" s="8"/>
+      <c r="D874" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E874" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F874" s="8"/>
       <c r="G874" s="8"/>
       <c r="H874" s="8"/>
@@ -41295,8 +43497,14 @@
       <c r="A875" s="6"/>
       <c r="B875" s="6"/>
       <c r="C875" s="6"/>
-      <c r="D875" s="6"/>
-      <c r="E875" s="6"/>
+      <c r="D875" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E875" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F875" s="6"/>
       <c r="G875" s="6"/>
       <c r="H875" s="6"/>
@@ -41327,8 +43535,14 @@
       <c r="A876" s="8"/>
       <c r="B876" s="8"/>
       <c r="C876" s="8"/>
-      <c r="D876" s="8"/>
-      <c r="E876" s="8"/>
+      <c r="D876" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E876" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F876" s="8"/>
       <c r="G876" s="8"/>
       <c r="H876" s="8"/>
@@ -41359,8 +43573,14 @@
       <c r="A877" s="6"/>
       <c r="B877" s="6"/>
       <c r="C877" s="6"/>
-      <c r="D877" s="6"/>
-      <c r="E877" s="6"/>
+      <c r="D877" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E877" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F877" s="6"/>
       <c r="G877" s="6"/>
       <c r="H877" s="6"/>
@@ -41391,8 +43611,14 @@
       <c r="A878" s="8"/>
       <c r="B878" s="8"/>
       <c r="C878" s="8"/>
-      <c r="D878" s="8"/>
-      <c r="E878" s="8"/>
+      <c r="D878" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E878" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F878" s="8"/>
       <c r="G878" s="8"/>
       <c r="H878" s="8"/>
@@ -41423,8 +43649,14 @@
       <c r="A879" s="6"/>
       <c r="B879" s="6"/>
       <c r="C879" s="6"/>
-      <c r="D879" s="6"/>
-      <c r="E879" s="6"/>
+      <c r="D879" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E879" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F879" s="6"/>
       <c r="G879" s="6"/>
       <c r="H879" s="6"/>
@@ -41455,8 +43687,14 @@
       <c r="A880" s="8"/>
       <c r="B880" s="8"/>
       <c r="C880" s="8"/>
-      <c r="D880" s="8"/>
-      <c r="E880" s="8"/>
+      <c r="D880" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E880" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F880" s="8"/>
       <c r="G880" s="8"/>
       <c r="H880" s="8"/>
@@ -41487,8 +43725,14 @@
       <c r="A881" s="6"/>
       <c r="B881" s="6"/>
       <c r="C881" s="6"/>
-      <c r="D881" s="6"/>
-      <c r="E881" s="6"/>
+      <c r="D881" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E881" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F881" s="6"/>
       <c r="G881" s="6"/>
       <c r="H881" s="6"/>
@@ -41519,8 +43763,14 @@
       <c r="A882" s="8"/>
       <c r="B882" s="8"/>
       <c r="C882" s="8"/>
-      <c r="D882" s="8"/>
-      <c r="E882" s="8"/>
+      <c r="D882" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E882" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F882" s="8"/>
       <c r="G882" s="8"/>
       <c r="H882" s="8"/>
@@ -41551,8 +43801,14 @@
       <c r="A883" s="6"/>
       <c r="B883" s="6"/>
       <c r="C883" s="6"/>
-      <c r="D883" s="6"/>
-      <c r="E883" s="6"/>
+      <c r="D883" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E883" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F883" s="6"/>
       <c r="G883" s="6"/>
       <c r="H883" s="6"/>
@@ -41583,8 +43839,14 @@
       <c r="A884" s="8"/>
       <c r="B884" s="8"/>
       <c r="C884" s="8"/>
-      <c r="D884" s="8"/>
-      <c r="E884" s="8"/>
+      <c r="D884" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E884" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F884" s="8"/>
       <c r="G884" s="8"/>
       <c r="H884" s="8"/>
@@ -41615,8 +43877,14 @@
       <c r="A885" s="6"/>
       <c r="B885" s="6"/>
       <c r="C885" s="6"/>
-      <c r="D885" s="6"/>
-      <c r="E885" s="6"/>
+      <c r="D885" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E885" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F885" s="6"/>
       <c r="G885" s="6"/>
       <c r="H885" s="6"/>
@@ -41647,8 +43915,14 @@
       <c r="A886" s="8"/>
       <c r="B886" s="8"/>
       <c r="C886" s="8"/>
-      <c r="D886" s="8"/>
-      <c r="E886" s="8"/>
+      <c r="D886" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E886" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F886" s="8"/>
       <c r="G886" s="8"/>
       <c r="H886" s="8"/>
@@ -41679,8 +43953,14 @@
       <c r="A887" s="6"/>
       <c r="B887" s="6"/>
       <c r="C887" s="6"/>
-      <c r="D887" s="6"/>
-      <c r="E887" s="6"/>
+      <c r="D887" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E887" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F887" s="6"/>
       <c r="G887" s="6"/>
       <c r="H887" s="6"/>
@@ -41711,8 +43991,14 @@
       <c r="A888" s="8"/>
       <c r="B888" s="8"/>
       <c r="C888" s="8"/>
-      <c r="D888" s="8"/>
-      <c r="E888" s="8"/>
+      <c r="D888" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E888" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F888" s="8"/>
       <c r="G888" s="8"/>
       <c r="H888" s="8"/>
@@ -41743,8 +44029,14 @@
       <c r="A889" s="6"/>
       <c r="B889" s="6"/>
       <c r="C889" s="6"/>
-      <c r="D889" s="6"/>
-      <c r="E889" s="6"/>
+      <c r="D889" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E889" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F889" s="6"/>
       <c r="G889" s="6"/>
       <c r="H889" s="6"/>
@@ -41775,8 +44067,14 @@
       <c r="A890" s="8"/>
       <c r="B890" s="8"/>
       <c r="C890" s="8"/>
-      <c r="D890" s="8"/>
-      <c r="E890" s="8"/>
+      <c r="D890" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E890" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F890" s="8"/>
       <c r="G890" s="8"/>
       <c r="H890" s="8"/>
@@ -41807,8 +44105,14 @@
       <c r="A891" s="6"/>
       <c r="B891" s="6"/>
       <c r="C891" s="6"/>
-      <c r="D891" s="6"/>
-      <c r="E891" s="6"/>
+      <c r="D891" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E891" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F891" s="6"/>
       <c r="G891" s="6"/>
       <c r="H891" s="6"/>
@@ -41839,8 +44143,14 @@
       <c r="A892" s="8"/>
       <c r="B892" s="8"/>
       <c r="C892" s="8"/>
-      <c r="D892" s="8"/>
-      <c r="E892" s="8"/>
+      <c r="D892" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E892" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F892" s="8"/>
       <c r="G892" s="8"/>
       <c r="H892" s="8"/>
@@ -41871,8 +44181,14 @@
       <c r="A893" s="6"/>
       <c r="B893" s="6"/>
       <c r="C893" s="6"/>
-      <c r="D893" s="6"/>
-      <c r="E893" s="6"/>
+      <c r="D893" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E893" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F893" s="6"/>
       <c r="G893" s="6"/>
       <c r="H893" s="6"/>
@@ -41903,8 +44219,14 @@
       <c r="A894" s="8"/>
       <c r="B894" s="8"/>
       <c r="C894" s="8"/>
-      <c r="D894" s="8"/>
-      <c r="E894" s="8"/>
+      <c r="D894" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E894" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F894" s="8"/>
       <c r="G894" s="8"/>
       <c r="H894" s="8"/>
@@ -41935,8 +44257,14 @@
       <c r="A895" s="6"/>
       <c r="B895" s="6"/>
       <c r="C895" s="6"/>
-      <c r="D895" s="6"/>
-      <c r="E895" s="6"/>
+      <c r="D895" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E895" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F895" s="6"/>
       <c r="G895" s="6"/>
       <c r="H895" s="6"/>
@@ -41967,8 +44295,14 @@
       <c r="A896" s="8"/>
       <c r="B896" s="8"/>
       <c r="C896" s="8"/>
-      <c r="D896" s="8"/>
-      <c r="E896" s="8"/>
+      <c r="D896" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E896" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F896" s="8"/>
       <c r="G896" s="8"/>
       <c r="H896" s="8"/>
@@ -41999,8 +44333,14 @@
       <c r="A897" s="6"/>
       <c r="B897" s="6"/>
       <c r="C897" s="6"/>
-      <c r="D897" s="6"/>
-      <c r="E897" s="6"/>
+      <c r="D897" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E897" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F897" s="6"/>
       <c r="G897" s="6"/>
       <c r="H897" s="6"/>
@@ -42031,8 +44371,14 @@
       <c r="A898" s="8"/>
       <c r="B898" s="8"/>
       <c r="C898" s="8"/>
-      <c r="D898" s="8"/>
-      <c r="E898" s="8"/>
+      <c r="D898" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E898" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F898" s="8"/>
       <c r="G898" s="8"/>
       <c r="H898" s="8"/>
@@ -42063,8 +44409,14 @@
       <c r="A899" s="6"/>
       <c r="B899" s="6"/>
       <c r="C899" s="6"/>
-      <c r="D899" s="6"/>
-      <c r="E899" s="6"/>
+      <c r="D899" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E899" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F899" s="6"/>
       <c r="G899" s="6"/>
       <c r="H899" s="6"/>
@@ -42095,8 +44447,14 @@
       <c r="A900" s="8"/>
       <c r="B900" s="8"/>
       <c r="C900" s="8"/>
-      <c r="D900" s="8"/>
-      <c r="E900" s="8"/>
+      <c r="D900" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E900" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F900" s="8"/>
       <c r="G900" s="8"/>
       <c r="H900" s="8"/>
@@ -42127,8 +44485,14 @@
       <c r="A901" s="6"/>
       <c r="B901" s="6"/>
       <c r="C901" s="6"/>
-      <c r="D901" s="6"/>
-      <c r="E901" s="6"/>
+      <c r="D901" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E901" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F901" s="6"/>
       <c r="G901" s="6"/>
       <c r="H901" s="6"/>
@@ -42159,8 +44523,14 @@
       <c r="A902" s="8"/>
       <c r="B902" s="8"/>
       <c r="C902" s="8"/>
-      <c r="D902" s="8"/>
-      <c r="E902" s="8"/>
+      <c r="D902" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E902" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F902" s="8"/>
       <c r="G902" s="8"/>
       <c r="H902" s="8"/>
@@ -42191,8 +44561,14 @@
       <c r="A903" s="6"/>
       <c r="B903" s="6"/>
       <c r="C903" s="6"/>
-      <c r="D903" s="6"/>
-      <c r="E903" s="6"/>
+      <c r="D903" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E903" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F903" s="6"/>
       <c r="G903" s="6"/>
       <c r="H903" s="6"/>
@@ -42223,8 +44599,14 @@
       <c r="A904" s="8"/>
       <c r="B904" s="8"/>
       <c r="C904" s="8"/>
-      <c r="D904" s="8"/>
-      <c r="E904" s="8"/>
+      <c r="D904" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E904" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F904" s="8"/>
       <c r="G904" s="8"/>
       <c r="H904" s="8"/>
@@ -42255,8 +44637,14 @@
       <c r="A905" s="6"/>
       <c r="B905" s="6"/>
       <c r="C905" s="6"/>
-      <c r="D905" s="6"/>
-      <c r="E905" s="6"/>
+      <c r="D905" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E905" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F905" s="6"/>
       <c r="G905" s="6"/>
       <c r="H905" s="6"/>
@@ -42287,8 +44675,14 @@
       <c r="A906" s="8"/>
       <c r="B906" s="8"/>
       <c r="C906" s="8"/>
-      <c r="D906" s="8"/>
-      <c r="E906" s="8"/>
+      <c r="D906" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E906" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F906" s="8"/>
       <c r="G906" s="8"/>
       <c r="H906" s="8"/>
@@ -42319,8 +44713,14 @@
       <c r="A907" s="6"/>
       <c r="B907" s="6"/>
       <c r="C907" s="6"/>
-      <c r="D907" s="6"/>
-      <c r="E907" s="6"/>
+      <c r="D907" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E907" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F907" s="6"/>
       <c r="G907" s="6"/>
       <c r="H907" s="6"/>
@@ -42351,8 +44751,14 @@
       <c r="A908" s="8"/>
       <c r="B908" s="8"/>
       <c r="C908" s="8"/>
-      <c r="D908" s="8"/>
-      <c r="E908" s="8"/>
+      <c r="D908" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E908" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F908" s="8"/>
       <c r="G908" s="8"/>
       <c r="H908" s="8"/>
@@ -42383,8 +44789,14 @@
       <c r="A909" s="6"/>
       <c r="B909" s="6"/>
       <c r="C909" s="6"/>
-      <c r="D909" s="6"/>
-      <c r="E909" s="6"/>
+      <c r="D909" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E909" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F909" s="6"/>
       <c r="G909" s="6"/>
       <c r="H909" s="6"/>
@@ -42415,8 +44827,14 @@
       <c r="A910" s="8"/>
       <c r="B910" s="8"/>
       <c r="C910" s="8"/>
-      <c r="D910" s="8"/>
-      <c r="E910" s="8"/>
+      <c r="D910" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E910" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F910" s="8"/>
       <c r="G910" s="8"/>
       <c r="H910" s="8"/>
@@ -42447,8 +44865,14 @@
       <c r="A911" s="6"/>
       <c r="B911" s="6"/>
       <c r="C911" s="6"/>
-      <c r="D911" s="6"/>
-      <c r="E911" s="6"/>
+      <c r="D911" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E911" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F911" s="6"/>
       <c r="G911" s="6"/>
       <c r="H911" s="6"/>
@@ -42479,8 +44903,14 @@
       <c r="A912" s="8"/>
       <c r="B912" s="8"/>
       <c r="C912" s="8"/>
-      <c r="D912" s="8"/>
-      <c r="E912" s="8"/>
+      <c r="D912" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E912" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F912" s="8"/>
       <c r="G912" s="8"/>
       <c r="H912" s="8"/>
@@ -42511,8 +44941,14 @@
       <c r="A913" s="6"/>
       <c r="B913" s="6"/>
       <c r="C913" s="6"/>
-      <c r="D913" s="6"/>
-      <c r="E913" s="6"/>
+      <c r="D913" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E913" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F913" s="6"/>
       <c r="G913" s="6"/>
       <c r="H913" s="6"/>
@@ -42543,8 +44979,14 @@
       <c r="A914" s="8"/>
       <c r="B914" s="8"/>
       <c r="C914" s="8"/>
-      <c r="D914" s="8"/>
-      <c r="E914" s="8"/>
+      <c r="D914" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E914" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F914" s="8"/>
       <c r="G914" s="8"/>
       <c r="H914" s="8"/>
@@ -42575,8 +45017,14 @@
       <c r="A915" s="6"/>
       <c r="B915" s="6"/>
       <c r="C915" s="6"/>
-      <c r="D915" s="6"/>
-      <c r="E915" s="6"/>
+      <c r="D915" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E915" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F915" s="6"/>
       <c r="G915" s="6"/>
       <c r="H915" s="6"/>
@@ -42607,8 +45055,14 @@
       <c r="A916" s="8"/>
       <c r="B916" s="8"/>
       <c r="C916" s="8"/>
-      <c r="D916" s="8"/>
-      <c r="E916" s="8"/>
+      <c r="D916" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E916" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F916" s="8"/>
       <c r="G916" s="8"/>
       <c r="H916" s="8"/>
@@ -42639,8 +45093,14 @@
       <c r="A917" s="6"/>
       <c r="B917" s="6"/>
       <c r="C917" s="6"/>
-      <c r="D917" s="6"/>
-      <c r="E917" s="6"/>
+      <c r="D917" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E917" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F917" s="6"/>
       <c r="G917" s="6"/>
       <c r="H917" s="6"/>
@@ -42671,8 +45131,14 @@
       <c r="A918" s="8"/>
       <c r="B918" s="8"/>
       <c r="C918" s="8"/>
-      <c r="D918" s="8"/>
-      <c r="E918" s="8"/>
+      <c r="D918" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E918" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F918" s="8"/>
       <c r="G918" s="8"/>
       <c r="H918" s="8"/>
@@ -42703,8 +45169,14 @@
       <c r="A919" s="6"/>
       <c r="B919" s="6"/>
       <c r="C919" s="6"/>
-      <c r="D919" s="6"/>
-      <c r="E919" s="6"/>
+      <c r="D919" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E919" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F919" s="6"/>
       <c r="G919" s="6"/>
       <c r="H919" s="6"/>
@@ -42735,8 +45207,14 @@
       <c r="A920" s="8"/>
       <c r="B920" s="8"/>
       <c r="C920" s="8"/>
-      <c r="D920" s="8"/>
-      <c r="E920" s="8"/>
+      <c r="D920" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E920" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F920" s="8"/>
       <c r="G920" s="8"/>
       <c r="H920" s="8"/>
@@ -42767,8 +45245,14 @@
       <c r="A921" s="6"/>
       <c r="B921" s="6"/>
       <c r="C921" s="6"/>
-      <c r="D921" s="6"/>
-      <c r="E921" s="6"/>
+      <c r="D921" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E921" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F921" s="6"/>
       <c r="G921" s="6"/>
       <c r="H921" s="6"/>
@@ -42799,8 +45283,14 @@
       <c r="A922" s="8"/>
       <c r="B922" s="8"/>
       <c r="C922" s="8"/>
-      <c r="D922" s="8"/>
-      <c r="E922" s="8"/>
+      <c r="D922" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E922" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F922" s="8"/>
       <c r="G922" s="8"/>
       <c r="H922" s="8"/>
@@ -42831,8 +45321,14 @@
       <c r="A923" s="6"/>
       <c r="B923" s="6"/>
       <c r="C923" s="6"/>
-      <c r="D923" s="6"/>
-      <c r="E923" s="6"/>
+      <c r="D923" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E923" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F923" s="6"/>
       <c r="G923" s="6"/>
       <c r="H923" s="6"/>
@@ -42863,8 +45359,14 @@
       <c r="A924" s="8"/>
       <c r="B924" s="8"/>
       <c r="C924" s="8"/>
-      <c r="D924" s="8"/>
-      <c r="E924" s="8"/>
+      <c r="D924" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E924" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F924" s="8"/>
       <c r="G924" s="8"/>
       <c r="H924" s="8"/>
@@ -42895,8 +45397,14 @@
       <c r="A925" s="6"/>
       <c r="B925" s="6"/>
       <c r="C925" s="6"/>
-      <c r="D925" s="6"/>
-      <c r="E925" s="6"/>
+      <c r="D925" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E925" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F925" s="6"/>
       <c r="G925" s="6"/>
       <c r="H925" s="6"/>
@@ -42927,8 +45435,14 @@
       <c r="A926" s="8"/>
       <c r="B926" s="8"/>
       <c r="C926" s="8"/>
-      <c r="D926" s="8"/>
-      <c r="E926" s="8"/>
+      <c r="D926" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E926" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F926" s="8"/>
       <c r="G926" s="8"/>
       <c r="H926" s="8"/>
@@ -42959,8 +45473,14 @@
       <c r="A927" s="6"/>
       <c r="B927" s="6"/>
       <c r="C927" s="6"/>
-      <c r="D927" s="6"/>
-      <c r="E927" s="6"/>
+      <c r="D927" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E927" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F927" s="6"/>
       <c r="G927" s="6"/>
       <c r="H927" s="6"/>
@@ -42991,8 +45511,14 @@
       <c r="A928" s="8"/>
       <c r="B928" s="8"/>
       <c r="C928" s="8"/>
-      <c r="D928" s="8"/>
-      <c r="E928" s="8"/>
+      <c r="D928" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E928" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F928" s="8"/>
       <c r="G928" s="8"/>
       <c r="H928" s="8"/>
@@ -43023,8 +45549,14 @@
       <c r="A929" s="6"/>
       <c r="B929" s="6"/>
       <c r="C929" s="6"/>
-      <c r="D929" s="6"/>
-      <c r="E929" s="6"/>
+      <c r="D929" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E929" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F929" s="6"/>
       <c r="G929" s="6"/>
       <c r="H929" s="6"/>
@@ -43055,8 +45587,14 @@
       <c r="A930" s="8"/>
       <c r="B930" s="8"/>
       <c r="C930" s="8"/>
-      <c r="D930" s="8"/>
-      <c r="E930" s="8"/>
+      <c r="D930" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E930" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F930" s="8"/>
       <c r="G930" s="8"/>
       <c r="H930" s="8"/>
@@ -43087,8 +45625,14 @@
       <c r="A931" s="6"/>
       <c r="B931" s="6"/>
       <c r="C931" s="6"/>
-      <c r="D931" s="6"/>
-      <c r="E931" s="6"/>
+      <c r="D931" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E931" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F931" s="6"/>
       <c r="G931" s="6"/>
       <c r="H931" s="6"/>
@@ -43119,8 +45663,14 @@
       <c r="A932" s="8"/>
       <c r="B932" s="8"/>
       <c r="C932" s="8"/>
-      <c r="D932" s="8"/>
-      <c r="E932" s="8"/>
+      <c r="D932" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E932" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F932" s="8"/>
       <c r="G932" s="8"/>
       <c r="H932" s="8"/>
@@ -43151,8 +45701,14 @@
       <c r="A933" s="6"/>
       <c r="B933" s="6"/>
       <c r="C933" s="6"/>
-      <c r="D933" s="6"/>
-      <c r="E933" s="6"/>
+      <c r="D933" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E933" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F933" s="6"/>
       <c r="G933" s="6"/>
       <c r="H933" s="6"/>
@@ -43183,8 +45739,14 @@
       <c r="A934" s="8"/>
       <c r="B934" s="8"/>
       <c r="C934" s="8"/>
-      <c r="D934" s="8"/>
-      <c r="E934" s="8"/>
+      <c r="D934" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E934" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F934" s="8"/>
       <c r="G934" s="8"/>
       <c r="H934" s="8"/>
@@ -43215,8 +45777,14 @@
       <c r="A935" s="6"/>
       <c r="B935" s="6"/>
       <c r="C935" s="6"/>
-      <c r="D935" s="6"/>
-      <c r="E935" s="6"/>
+      <c r="D935" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E935" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F935" s="6"/>
       <c r="G935" s="6"/>
       <c r="H935" s="6"/>
@@ -43247,8 +45815,14 @@
       <c r="A936" s="8"/>
       <c r="B936" s="8"/>
       <c r="C936" s="8"/>
-      <c r="D936" s="8"/>
-      <c r="E936" s="8"/>
+      <c r="D936" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E936" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F936" s="8"/>
       <c r="G936" s="8"/>
       <c r="H936" s="8"/>
@@ -43279,8 +45853,14 @@
       <c r="A937" s="6"/>
       <c r="B937" s="6"/>
       <c r="C937" s="6"/>
-      <c r="D937" s="6"/>
-      <c r="E937" s="6"/>
+      <c r="D937" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E937" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F937" s="6"/>
       <c r="G937" s="6"/>
       <c r="H937" s="6"/>
@@ -43311,8 +45891,14 @@
       <c r="A938" s="8"/>
       <c r="B938" s="8"/>
       <c r="C938" s="8"/>
-      <c r="D938" s="8"/>
-      <c r="E938" s="8"/>
+      <c r="D938" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E938" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F938" s="8"/>
       <c r="G938" s="8"/>
       <c r="H938" s="8"/>
@@ -43343,8 +45929,14 @@
       <c r="A939" s="6"/>
       <c r="B939" s="6"/>
       <c r="C939" s="6"/>
-      <c r="D939" s="6"/>
-      <c r="E939" s="6"/>
+      <c r="D939" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E939" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F939" s="6"/>
       <c r="G939" s="6"/>
       <c r="H939" s="6"/>
@@ -43375,8 +45967,14 @@
       <c r="A940" s="8"/>
       <c r="B940" s="8"/>
       <c r="C940" s="8"/>
-      <c r="D940" s="8"/>
-      <c r="E940" s="8"/>
+      <c r="D940" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E940" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F940" s="8"/>
       <c r="G940" s="8"/>
       <c r="H940" s="8"/>
@@ -43407,8 +46005,14 @@
       <c r="A941" s="6"/>
       <c r="B941" s="6"/>
       <c r="C941" s="6"/>
-      <c r="D941" s="6"/>
-      <c r="E941" s="6"/>
+      <c r="D941" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E941" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F941" s="6"/>
       <c r="G941" s="6"/>
       <c r="H941" s="6"/>
@@ -43439,8 +46043,14 @@
       <c r="A942" s="8"/>
       <c r="B942" s="8"/>
       <c r="C942" s="8"/>
-      <c r="D942" s="8"/>
-      <c r="E942" s="8"/>
+      <c r="D942" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E942" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F942" s="8"/>
       <c r="G942" s="8"/>
       <c r="H942" s="8"/>
@@ -43471,8 +46081,14 @@
       <c r="A943" s="6"/>
       <c r="B943" s="6"/>
       <c r="C943" s="6"/>
-      <c r="D943" s="6"/>
-      <c r="E943" s="6"/>
+      <c r="D943" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E943" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F943" s="6"/>
       <c r="G943" s="6"/>
       <c r="H943" s="6"/>
@@ -43503,8 +46119,14 @@
       <c r="A944" s="8"/>
       <c r="B944" s="8"/>
       <c r="C944" s="8"/>
-      <c r="D944" s="8"/>
-      <c r="E944" s="8"/>
+      <c r="D944" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E944" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F944" s="8"/>
       <c r="G944" s="8"/>
       <c r="H944" s="8"/>
@@ -43535,8 +46157,14 @@
       <c r="A945" s="6"/>
       <c r="B945" s="6"/>
       <c r="C945" s="6"/>
-      <c r="D945" s="6"/>
-      <c r="E945" s="6"/>
+      <c r="D945" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E945" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F945" s="6"/>
       <c r="G945" s="6"/>
       <c r="H945" s="6"/>
@@ -43567,8 +46195,14 @@
       <c r="A946" s="8"/>
       <c r="B946" s="8"/>
       <c r="C946" s="8"/>
-      <c r="D946" s="8"/>
-      <c r="E946" s="8"/>
+      <c r="D946" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E946" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F946" s="8"/>
       <c r="G946" s="8"/>
       <c r="H946" s="8"/>
@@ -43599,8 +46233,14 @@
       <c r="A947" s="6"/>
       <c r="B947" s="6"/>
       <c r="C947" s="6"/>
-      <c r="D947" s="6"/>
-      <c r="E947" s="6"/>
+      <c r="D947" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E947" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F947" s="6"/>
       <c r="G947" s="6"/>
       <c r="H947" s="6"/>
@@ -43631,8 +46271,14 @@
       <c r="A948" s="8"/>
       <c r="B948" s="8"/>
       <c r="C948" s="8"/>
-      <c r="D948" s="8"/>
-      <c r="E948" s="8"/>
+      <c r="D948" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E948" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F948" s="8"/>
       <c r="G948" s="8"/>
       <c r="H948" s="8"/>
@@ -43663,8 +46309,14 @@
       <c r="A949" s="6"/>
       <c r="B949" s="6"/>
       <c r="C949" s="6"/>
-      <c r="D949" s="6"/>
-      <c r="E949" s="6"/>
+      <c r="D949" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E949" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F949" s="6"/>
       <c r="G949" s="6"/>
       <c r="H949" s="6"/>
@@ -43695,8 +46347,14 @@
       <c r="A950" s="8"/>
       <c r="B950" s="8"/>
       <c r="C950" s="8"/>
-      <c r="D950" s="8"/>
-      <c r="E950" s="8"/>
+      <c r="D950" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E950" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F950" s="8"/>
       <c r="G950" s="8"/>
       <c r="H950" s="8"/>
@@ -45389,7 +48047,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2">
@@ -45402,20 +48060,20 @@
       </c>
       <c r="C2" s="15">
         <f>SUMIF(Salvage!B:B,"Rare",Salvage!C:C)</f>
-        <v>1186</v>
+        <v>1419</v>
       </c>
       <c r="D2" s="15">
         <f>SUMIF(Salvage!B:B,"Legendary",Salvage!C:C)</f>
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E2" s="15">
         <f>SUM(B2:D2)</f>
-        <v>1411</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B4" s="14">
         <f>SUMIF(Salvage!B:B,B1,Salvage!D:D)</f>
@@ -45423,20 +48081,20 @@
       </c>
       <c r="C4" s="15">
         <f>SUMIF(Salvage!B:B,C1,Salvage!D:D)</f>
-        <v>118600</v>
+        <v>141900</v>
       </c>
       <c r="D4" s="14">
         <f>SUMIF(Salvage!B:B,D1,Salvage!D:D)</f>
-        <v>24500</v>
+        <v>34000</v>
       </c>
       <c r="E4" s="15">
         <f t="shared" ref="E4:E5" si="1">SUM(B4:D4)</f>
-        <v>144860</v>
+        <v>177660</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B5" s="14">
         <f>SUMIF(Salvage!B:B,B1,Salvage!E:E)</f>
@@ -45444,15 +48102,15 @@
       </c>
       <c r="C5" s="14">
         <f>SUMIF(Salvage!B:B,C1,Salvage!E:E)</f>
-        <v>140210</v>
+        <v>169508</v>
       </c>
       <c r="D5" s="15">
         <f>SUMIF(Salvage!B:B,D1,Salvage!E:E)</f>
-        <v>32750</v>
+        <v>47600</v>
       </c>
       <c r="E5" s="15">
         <f t="shared" si="1"/>
-        <v>173250</v>
+        <v>217398</v>
       </c>
     </row>
     <row r="6">
@@ -45460,7 +48118,7 @@
     </row>
     <row r="7">
       <c r="A7" s="12" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B7" s="15">
         <f t="shared" ref="B7:D7" si="2">B4/B2</f>
@@ -45478,7 +48136,7 @@
     </row>
     <row r="8">
       <c r="A8" s="12" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="B8" s="16">
         <f t="shared" ref="B8:D8" si="3">B5/B2</f>
@@ -45486,11 +48144,11 @@
       </c>
       <c r="C8" s="16">
         <f t="shared" si="3"/>
-        <v>118.2209106</v>
+        <v>119.4559549</v>
       </c>
       <c r="D8" s="16">
         <f t="shared" si="3"/>
-        <v>668.3673469</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -45517,7 +48175,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2">
@@ -45526,16 +48184,16 @@
         <v>28</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3">
@@ -45543,10 +48201,10 @@
         <v>43378.0</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>70</v>
@@ -45555,7 +48213,7 @@
         <v>27</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4">
@@ -45563,10 +48221,10 @@
         <v>43381.0</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>117</v>
@@ -45575,7 +48233,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5">
@@ -45586,16 +48244,16 @@
         <v>12</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>81</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6">
@@ -45609,10 +48267,10 @@
         <v>37</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>99</v>
@@ -45623,19 +48281,19 @@
         <v>43385.0</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8">
@@ -45643,7 +48301,7 @@
         <v>43385.0</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>25</v>
@@ -45652,7 +48310,7 @@
         <v>51</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>112</v>
@@ -45663,19 +48321,19 @@
         <v>43388.0</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>58</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10">
@@ -45683,13 +48341,13 @@
         <v>43388.0</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>19</v>
@@ -45703,19 +48361,19 @@
         <v>43416.0</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12">
@@ -45723,19 +48381,19 @@
         <v>43416.0</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>156</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13">
@@ -45743,19 +48401,19 @@
         <v>43416.0</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14">
@@ -45766,16 +48424,16 @@
         <v>81</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15">
@@ -45789,13 +48447,13 @@
         <v>24</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16">
@@ -45803,13 +48461,13 @@
         <v>43424.0</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>21</v>
@@ -45823,10 +48481,10 @@
         <v>43424.0</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>24</v>
@@ -45846,16 +48504,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>55</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19">
@@ -45863,16 +48521,16 @@
         <v>43424.0</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>93</v>
@@ -45887,13 +48545,13 @@
         <v>56</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21">
@@ -45901,19 +48559,19 @@
         <v>43432.0</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>56</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22">
@@ -45924,13 +48582,13 @@
         <v>27</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>54</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>176</v>
@@ -45945,19 +48603,19 @@
         <v>30</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="18"/>
       <c r="B24" s="19" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>22</v>
@@ -45966,10 +48624,10 @@
         <v>68</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25">
@@ -45981,10 +48639,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>174</v>
@@ -45996,16 +48654,16 @@
         <v>13</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27">
@@ -46014,10 +48672,10 @@
         <v>12</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>32</v>
@@ -46029,46 +48687,46 @@
     <row r="28">
       <c r="A28" s="18"/>
       <c r="B28" s="19" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>59</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="18"/>
       <c r="B29" s="19" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>72</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="18"/>
       <c r="B30" s="19" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>81</v>
@@ -46088,10 +48746,10 @@
         <v>64</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>16</v>
@@ -46106,16 +48764,16 @@
         <v>59</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33">
@@ -46124,16 +48782,16 @@
         <v>18</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>51</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34">
@@ -46144,16 +48802,16 @@
         <v>54</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35">
@@ -46162,16 +48820,16 @@
         <v>77</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36">
@@ -46179,34 +48837,34 @@
         <v>43455.0</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="18"/>
       <c r="B37" s="19" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="F37" s="19" t="s">
         <v>170</v>
@@ -46217,19 +48875,19 @@
         <v>43487.0</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39">
@@ -46241,10 +48899,10 @@
         <v>23</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="F39" s="19" t="s">
         <v>193</v>
@@ -46253,37 +48911,37 @@
     <row r="40">
       <c r="A40" s="18"/>
       <c r="B40" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>133</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="18"/>
       <c r="B41" s="19" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42">
@@ -46291,7 +48949,7 @@
         <v>43516.0</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>28</v>
@@ -46300,10 +48958,10 @@
         <v>59</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43">
@@ -46312,34 +48970,34 @@
         <v>23</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="D43" s="19" t="s">
         <v>171</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="18"/>
       <c r="B44" s="19" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D44" s="19" t="s">
         <v>73</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45">
@@ -46347,25 +49005,25 @@
         <v>43521.0</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D45" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="18"/>
       <c r="B46" s="19" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>20</v>
@@ -46374,10 +49032,10 @@
         <v>63</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47">
@@ -46385,19 +49043,19 @@
         <v>43593.0</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48">
@@ -46411,13 +49069,13 @@
         <v>78</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49">
@@ -46428,13 +49086,13 @@
         <v>30</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50">
@@ -46445,31 +49103,31 @@
         <v>17</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="D50" s="19" t="s">
         <v>45</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="18"/>
       <c r="B51" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C51" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="F51" s="19" t="s">
         <v>99</v>
@@ -46478,7 +49136,7 @@
     <row r="52">
       <c r="A52" s="18"/>
       <c r="B52" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>68</v>
@@ -46487,25 +49145,25 @@
         <v>22</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="18"/>
       <c r="B53" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>22</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="F53" s="19" t="s">
         <v>179</v>
@@ -46519,13 +49177,13 @@
         <v>30</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="D54" s="19" t="s">
         <v>35</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="F54" s="19" t="s">
         <v>204</v>
@@ -46534,16 +49192,16 @@
     <row r="55">
       <c r="A55" s="18"/>
       <c r="B55" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="F55" s="19" t="s">
         <v>36</v>
@@ -46552,25 +49210,25 @@
     <row r="56">
       <c r="A56" s="18"/>
       <c r="B56" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="18"/>
       <c r="B57" s="19" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>19</v>
@@ -46579,16 +49237,16 @@
         <v>83</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="18"/>
       <c r="B58" s="19" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>17</v>
@@ -46597,10 +49255,10 @@
         <v>81</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59">
@@ -46611,22 +49269,22 @@
         <v>11</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="18"/>
       <c r="B60" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C60" s="19" t="s">
         <v>98</v>
@@ -46635,10 +49293,10 @@
         <v>14</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61">
@@ -46646,19 +49304,19 @@
         <v>44001.0</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="62">
@@ -46666,104 +49324,360 @@
         <v>44005.0</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>71</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="18"/>
       <c r="B63" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="18"/>
       <c r="B64" s="19" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="18"/>
+      <c r="A65" s="17">
+        <v>44006.0</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="18"/>
+      <c r="A66" s="17">
+        <v>44012.0</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="18"/>
+      <c r="B67" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="18"/>
+      <c r="B68" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="18"/>
+      <c r="B69" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="18"/>
+      <c r="B70" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="F70" s="19" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="18"/>
+      <c r="A71" s="17">
+        <v>44091.0</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="18"/>
+      <c r="B72" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="18"/>
+      <c r="B73" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="F73" s="19" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="18"/>
+      <c r="A74" s="17">
+        <v>44095.0</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="F74" s="19" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="18"/>
+      <c r="A75" s="17">
+        <v>44097.0</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="F75" s="19" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="18"/>
+      <c r="A76" s="17">
+        <v>44103.0</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="19" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="18"/>
+      <c r="B77" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="F77" s="19" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="18"/>
+      <c r="A78" s="17">
+        <v>44105.0</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="F78" s="19" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="18"/>
+      <c r="A79" s="17">
+        <v>44106.0</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="18"/>
+      <c r="B80" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E80" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="F80" s="19" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="18"/>
